--- a/Classification/LabeledandUnlabeled_Profiles.xlsx
+++ b/Classification/LabeledandUnlabeled_Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A5D8C5-932E-4329-BC77-DA4E52995175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7673BB7-C593-48E3-BDA9-31606CE61D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profiledescriptions_withpartyan" sheetId="2" r:id="rId1"/>
@@ -9647,11 +9647,6 @@
     <t>NBJule</t>
   </si>
   <si>
-    <t>MdL Landtag MV, Mitglied der Stadtvertretung Neubrandenburg_x000D_
-it's not easy to be green, hier privat unterwegs_x000D_
-retweet bedeutet nicht automatisch Zustimmung</t>
-  </si>
-  <si>
     <t>ChWinter_MV</t>
   </si>
   <si>
@@ -10093,11 +10088,6 @@
     <t>_VPartei_</t>
   </si>
   <si>
-    <t>Tiere, Klima, Gerechtigkeit._x000D_
-_x000D_
-#vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
-  </si>
-  <si>
     <t>V-Partei³</t>
   </si>
   <si>
@@ -10197,10 +10187,6 @@
   </si>
   <si>
     <t>sozialliberale</t>
-  </si>
-  <si>
-    <t>Wir streiten für mutige, faire, nachhaltige und fortschrittliche Politik. Deutschlands sozialliberale Partei. 🗽⚖️🌿🚀_x000D_
-Impressum: https://t.co/q7zMc8FMmj</t>
   </si>
   <si>
     <t>Liberale Demokraten</t>
@@ -12854,13 +12840,6 @@
 https://t.co/02XBxE8NbX</t>
   </si>
   <si>
-    <t>Hier twittert die politische Partei _x000D_
-Wir Bürger_x000D_
-Liberal.Konservativ. _x000D_
-Impressum:https://t.co/GIji6KOj2x_x000D_
-https://t.co/MtcOh7Up2b</t>
-  </si>
-  <si>
     <t>Wir sind ein Zusammenschluss aus über 120 Bürgerinitiativen: Die Brandenburger Vereinigten Bürgerbewegungen / Freie Wähler</t>
   </si>
   <si>
@@ -12983,6 +12962,20 @@
   </si>
   <si>
     <t>6 keine Kategorie</t>
+  </si>
+  <si>
+    <t>MdL Landtag MV, Mitglied der Stadtvertretung Neubrandenburg
+it's not easy to be green, hier privat unterwegs
+retweet bedeutet nicht automatisch Zustimmung</t>
+  </si>
+  <si>
+    <t>Wir streiten für mutige, faire, nachhaltige und fortschrittliche Politik. Deutschlands sozialliberale Partei. 🗽⚖️🌿🚀 Impressum: https://t.co/q7zMc8FMmj</t>
+  </si>
+  <si>
+    <t>Hier twittert die politische Partei  Wir BürgerLiberal.Konservativ.  Impressum:https://t.co/GIji6KOj2x https://t.co/MtcOh7Up2b</t>
+  </si>
+  <si>
+    <t>Tiere, Klima, Gerechtigkeit.#vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
   </si>
 </sst>
 </file>
@@ -13018,12 +13011,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -13352,8 +13344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A35DE379-53E0-4C6A-927A-6AB151B4A75B}">
   <dimension ref="A1:F2050"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="C1614" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C1632" sqref="C1632"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13383,7 +13375,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>4047</v>
+        <v>4044</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -13402,8 +13394,8 @@
       <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>4146</v>
+      <c r="F2" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -13422,8 +13414,8 @@
       <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>4146</v>
+      <c r="F3" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -13442,8 +13434,8 @@
       <c r="E4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>4146</v>
+      <c r="F4" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -13462,8 +13454,8 @@
       <c r="E5" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>4146</v>
+      <c r="F5" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -13482,8 +13474,8 @@
       <c r="E6" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>4146</v>
+      <c r="F6" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -13502,8 +13494,8 @@
       <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>4146</v>
+      <c r="F7" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -13522,8 +13514,8 @@
       <c r="E8" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>4146</v>
+      <c r="F8" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -13542,8 +13534,8 @@
       <c r="E9" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>4146</v>
+      <c r="F9" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -13562,8 +13554,8 @@
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>4146</v>
+      <c r="F10" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -13582,8 +13574,8 @@
       <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>4146</v>
+      <c r="F11" t="s">
+        <v>4142</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -13602,8 +13594,8 @@
       <c r="E12" t="s">
         <v>33</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>4147</v>
+      <c r="F12" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -13622,8 +13614,8 @@
       <c r="E13" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>4147</v>
+      <c r="F13" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -13642,8 +13634,8 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>4147</v>
+      <c r="F14" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -13662,8 +13654,8 @@
       <c r="E15" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>4147</v>
+      <c r="F15" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -13682,8 +13674,8 @@
       <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>4147</v>
+      <c r="F16" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -13702,8 +13694,8 @@
       <c r="E17" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>4147</v>
+      <c r="F17" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -13722,8 +13714,8 @@
       <c r="E18" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>4147</v>
+      <c r="F18" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -13742,8 +13734,8 @@
       <c r="E19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>4147</v>
+      <c r="F19" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
@@ -13754,7 +13746,7 @@
         <v>564</v>
       </c>
       <c r="C20" t="s">
-        <v>4048</v>
+        <v>4045</v>
       </c>
       <c r="D20">
         <v>123000381</v>
@@ -13762,8 +13754,8 @@
       <c r="E20" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>4147</v>
+      <c r="F20" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -13782,8 +13774,8 @@
       <c r="E21" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>4147</v>
+      <c r="F21" t="s">
+        <v>4143</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
@@ -13802,8 +13794,8 @@
       <c r="E22" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>4148</v>
+      <c r="F22" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -13822,8 +13814,8 @@
       <c r="E23" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>4148</v>
+      <c r="F23" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
@@ -13842,8 +13834,8 @@
       <c r="E24" t="s">
         <v>7</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>4148</v>
+      <c r="F24" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
@@ -13862,8 +13854,8 @@
       <c r="E25" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>4148</v>
+      <c r="F25" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
@@ -13874,7 +13866,7 @@
         <v>23</v>
       </c>
       <c r="C26" t="s">
-        <v>4049</v>
+        <v>4046</v>
       </c>
       <c r="D26">
         <v>327792520</v>
@@ -13882,8 +13874,8 @@
       <c r="E26" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>4148</v>
+      <c r="F26" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
@@ -13894,7 +13886,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>4050</v>
+        <v>4047</v>
       </c>
       <c r="D27">
         <v>127620350</v>
@@ -13902,8 +13894,8 @@
       <c r="E27" t="s">
         <v>7</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>4148</v>
+      <c r="F27" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
@@ -13914,7 +13906,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>4051</v>
+        <v>4048</v>
       </c>
       <c r="D28">
         <v>1.1289162589839601E+18</v>
@@ -13922,8 +13914,8 @@
       <c r="E28" t="s">
         <v>7</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>4148</v>
+      <c r="F28" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -13942,8 +13934,8 @@
       <c r="E29" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>4148</v>
+      <c r="F29" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
@@ -13962,8 +13954,8 @@
       <c r="E30" t="s">
         <v>7</v>
       </c>
-      <c r="F30" s="2" t="s">
-        <v>4148</v>
+      <c r="F30" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
@@ -13971,7 +13963,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>4052</v>
+        <v>4049</v>
       </c>
       <c r="C31" t="s">
         <v>61</v>
@@ -13982,8 +13974,8 @@
       <c r="E31" t="s">
         <v>7</v>
       </c>
-      <c r="F31" s="2" t="s">
-        <v>4148</v>
+      <c r="F31" t="s">
+        <v>4144</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
@@ -14002,8 +13994,8 @@
       <c r="E32" t="s">
         <v>15</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>4149</v>
+      <c r="F32" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
@@ -14022,8 +14014,8 @@
       <c r="E33" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>4149</v>
+      <c r="F33" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -14042,8 +14034,8 @@
       <c r="E34" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="2" t="s">
-        <v>4149</v>
+      <c r="F34" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
@@ -14062,8 +14054,8 @@
       <c r="E35" t="s">
         <v>39</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>4149</v>
+      <c r="F35" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
@@ -14082,8 +14074,8 @@
       <c r="E36" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>4149</v>
+      <c r="F36" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
@@ -14102,8 +14094,8 @@
       <c r="E37" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>4149</v>
+      <c r="F37" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
@@ -14122,8 +14114,8 @@
       <c r="E38" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>4149</v>
+      <c r="F38" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
@@ -14142,8 +14134,8 @@
       <c r="E39" t="s">
         <v>39</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>4149</v>
+      <c r="F39" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
@@ -14162,8 +14154,8 @@
       <c r="E40" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="2" t="s">
-        <v>4149</v>
+      <c r="F40" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
@@ -14182,8 +14174,8 @@
       <c r="E41" t="s">
         <v>39</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>4149</v>
+      <c r="F41" t="s">
+        <v>4145</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
@@ -14202,8 +14194,8 @@
       <c r="E42" t="s">
         <v>36</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>4150</v>
+      <c r="F42" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -14222,8 +14214,8 @@
       <c r="E43" t="s">
         <v>36</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>4150</v>
+      <c r="F43" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
@@ -14234,7 +14226,7 @@
         <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>4053</v>
+        <v>4050</v>
       </c>
       <c r="D44">
         <v>1.00609979388882E+18</v>
@@ -14242,8 +14234,8 @@
       <c r="E44" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>4150</v>
+      <c r="F44" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
@@ -14262,8 +14254,8 @@
       <c r="E45" t="s">
         <v>36</v>
       </c>
-      <c r="F45" s="2" t="s">
-        <v>4150</v>
+      <c r="F45" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
@@ -14282,8 +14274,8 @@
       <c r="E46" t="s">
         <v>36</v>
       </c>
-      <c r="F46" s="2" t="s">
-        <v>4150</v>
+      <c r="F46" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
@@ -14302,8 +14294,8 @@
       <c r="E47" t="s">
         <v>36</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>4150</v>
+      <c r="F47" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
@@ -14322,8 +14314,8 @@
       <c r="E48" t="s">
         <v>36</v>
       </c>
-      <c r="F48" s="2" t="s">
-        <v>4150</v>
+      <c r="F48" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -14342,8 +14334,8 @@
       <c r="E49" t="s">
         <v>36</v>
       </c>
-      <c r="F49" s="2" t="s">
-        <v>4150</v>
+      <c r="F49" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -14362,8 +14354,8 @@
       <c r="E50" t="s">
         <v>36</v>
       </c>
-      <c r="F50" s="2" t="s">
-        <v>4150</v>
+      <c r="F50" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -14382,8 +14374,8 @@
       <c r="E51" t="s">
         <v>36</v>
       </c>
-      <c r="F51" s="2" t="s">
-        <v>4150</v>
+      <c r="F51" t="s">
+        <v>4146</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -14402,8 +14394,8 @@
       <c r="E52" t="s">
         <v>22</v>
       </c>
-      <c r="F52" s="2" t="s">
-        <v>4151</v>
+      <c r="F52" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
@@ -14422,8 +14414,8 @@
       <c r="E53" t="s">
         <v>22</v>
       </c>
-      <c r="F53" s="2" t="s">
-        <v>4151</v>
+      <c r="F53" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
@@ -14442,8 +14434,8 @@
       <c r="E54" t="s">
         <v>22</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>4151</v>
+      <c r="F54" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
@@ -14462,8 +14454,8 @@
       <c r="E55" t="s">
         <v>22</v>
       </c>
-      <c r="F55" s="2" t="s">
-        <v>4151</v>
+      <c r="F55" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
@@ -14482,8 +14474,8 @@
       <c r="E56" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="2" t="s">
-        <v>4151</v>
+      <c r="F56" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -14502,8 +14494,8 @@
       <c r="E57" t="s">
         <v>22</v>
       </c>
-      <c r="F57" s="2" t="s">
-        <v>4151</v>
+      <c r="F57" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
@@ -14522,8 +14514,8 @@
       <c r="E58" t="s">
         <v>22</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>4151</v>
+      <c r="F58" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -14542,8 +14534,8 @@
       <c r="E59" t="s">
         <v>22</v>
       </c>
-      <c r="F59" s="2" t="s">
-        <v>4151</v>
+      <c r="F59" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
@@ -14562,8 +14554,8 @@
       <c r="E60" t="s">
         <v>22</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>4151</v>
+      <c r="F60" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
@@ -14582,8 +14574,8 @@
       <c r="E61" t="s">
         <v>22</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>4151</v>
+      <c r="F61" t="s">
+        <v>4147</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
@@ -14602,8 +14594,8 @@
       <c r="E62" t="s">
         <v>7</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>4152</v>
+      <c r="F62" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
@@ -14622,8 +14614,8 @@
       <c r="E63" t="s">
         <v>36</v>
       </c>
-      <c r="F63" s="2" t="s">
-        <v>4152</v>
+      <c r="F63" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
@@ -14642,8 +14634,8 @@
       <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>4152</v>
+      <c r="F64" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
@@ -14662,8 +14654,8 @@
       <c r="E65" t="s">
         <v>39</v>
       </c>
-      <c r="F65" s="2" t="s">
-        <v>4152</v>
+      <c r="F65" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
@@ -14682,8 +14674,8 @@
       <c r="E66" t="s">
         <v>39</v>
       </c>
-      <c r="F66" s="2" t="s">
-        <v>4152</v>
+      <c r="F66" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
@@ -14702,8 +14694,8 @@
       <c r="E67" t="s">
         <v>39</v>
       </c>
-      <c r="F67" s="2" t="s">
-        <v>4152</v>
+      <c r="F67" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
@@ -14722,8 +14714,8 @@
       <c r="E68" t="s">
         <v>10</v>
       </c>
-      <c r="F68" s="2" t="s">
-        <v>4152</v>
+      <c r="F68" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
@@ -14742,8 +14734,8 @@
       <c r="E69" t="s">
         <v>22</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>4152</v>
+      <c r="F69" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
@@ -14762,8 +14754,8 @@
       <c r="E70" t="s">
         <v>137</v>
       </c>
-      <c r="F70" s="2" t="s">
-        <v>4152</v>
+      <c r="F70" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
@@ -14782,8 +14774,8 @@
       <c r="E71" t="s">
         <v>7</v>
       </c>
-      <c r="F71" s="2" t="s">
-        <v>4152</v>
+      <c r="F71" t="s">
+        <v>4148</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
@@ -15551,7 +15543,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>107</v>
       </c>
@@ -15559,7 +15551,7 @@
         <v>222</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>4054</v>
+        <v>4051</v>
       </c>
       <c r="D117">
         <v>8.1095756072350515E+17</v>
@@ -15653,7 +15645,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>113</v>
       </c>
@@ -15661,7 +15653,7 @@
         <v>233</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>4055</v>
+        <v>4052</v>
       </c>
       <c r="D123">
         <v>8.0296829783173901E+17</v>
@@ -15899,7 +15891,7 @@
         <v>262</v>
       </c>
       <c r="C137" t="s">
-        <v>4056</v>
+        <v>4053</v>
       </c>
       <c r="D137">
         <v>7.2256599110211098E+17</v>
@@ -15950,7 +15942,7 @@
         <v>267</v>
       </c>
       <c r="C140" t="s">
-        <v>4057</v>
+        <v>4054</v>
       </c>
       <c r="D140">
         <v>7.1336136685828198E+17</v>
@@ -15976,7 +15968,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>133</v>
       </c>
@@ -15984,7 +15976,7 @@
         <v>270</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>4058</v>
+        <v>4055</v>
       </c>
       <c r="D142">
         <v>2858227178</v>
@@ -16044,7 +16036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>138</v>
       </c>
@@ -16052,7 +16044,7 @@
         <v>279</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>4059</v>
+        <v>4056</v>
       </c>
       <c r="D146">
         <v>2229927807</v>
@@ -16185,7 +16177,7 @@
         <v>128</v>
       </c>
       <c r="B154" t="s">
-        <v>4060</v>
+        <v>4057</v>
       </c>
       <c r="C154" t="s">
         <v>298</v>
@@ -17081,7 +17073,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>201</v>
       </c>
@@ -17089,7 +17081,7 @@
         <v>403</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>4061</v>
+        <v>4058</v>
       </c>
       <c r="D207">
         <v>1226031532</v>
@@ -17514,7 +17506,7 @@
         <v>454</v>
       </c>
       <c r="C232" t="s">
-        <v>4062</v>
+        <v>4059</v>
       </c>
       <c r="D232">
         <v>906827922</v>
@@ -17956,7 +17948,7 @@
         <v>505</v>
       </c>
       <c r="C258" t="s">
-        <v>4063</v>
+        <v>4060</v>
       </c>
       <c r="D258">
         <v>209258073</v>
@@ -19112,7 +19104,7 @@
         <v>645</v>
       </c>
       <c r="C326" t="s">
-        <v>4064</v>
+        <v>4061</v>
       </c>
       <c r="D326">
         <v>23959185</v>
@@ -19316,7 +19308,7 @@
         <v>668</v>
       </c>
       <c r="C338" t="s">
-        <v>4065</v>
+        <v>4062</v>
       </c>
       <c r="D338">
         <v>32323722</v>
@@ -20047,7 +20039,7 @@
         <v>753</v>
       </c>
       <c r="C381" t="s">
-        <v>4066</v>
+        <v>4063</v>
       </c>
       <c r="D381">
         <v>17323027</v>
@@ -20200,7 +20192,7 @@
         <v>770</v>
       </c>
       <c r="C390" t="s">
-        <v>4067</v>
+        <v>4064</v>
       </c>
       <c r="D390">
         <v>2521976692</v>
@@ -20515,7 +20507,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>207</v>
       </c>
@@ -20523,7 +20515,7 @@
         <v>810</v>
       </c>
       <c r="C409" s="1" t="s">
-        <v>4068</v>
+        <v>4065</v>
       </c>
       <c r="D409">
         <v>65607107</v>
@@ -20540,7 +20532,7 @@
         <v>812</v>
       </c>
       <c r="C410" t="s">
-        <v>4069</v>
+        <v>4066</v>
       </c>
       <c r="D410">
         <v>52725293</v>
@@ -20591,7 +20583,7 @@
         <v>817</v>
       </c>
       <c r="C413" t="s">
-        <v>4070</v>
+        <v>4067</v>
       </c>
       <c r="D413">
         <v>32927823</v>
@@ -20642,7 +20634,7 @@
         <v>39</v>
       </c>
       <c r="C416" t="s">
-        <v>4071</v>
+        <v>4068</v>
       </c>
       <c r="D416">
         <v>20229858</v>
@@ -21747,7 +21739,7 @@
         <v>953</v>
       </c>
       <c r="C481" t="s">
-        <v>4072</v>
+        <v>4069</v>
       </c>
       <c r="D481">
         <v>30507250</v>
@@ -21866,7 +21858,7 @@
         <v>966</v>
       </c>
       <c r="C488" t="s">
-        <v>4073</v>
+        <v>4070</v>
       </c>
       <c r="D488">
         <v>17782837</v>
@@ -23549,7 +23541,7 @@
         <v>1163</v>
       </c>
       <c r="C587" t="s">
-        <v>4074</v>
+        <v>4071</v>
       </c>
       <c r="D587">
         <v>1879216975</v>
@@ -23872,7 +23864,7 @@
         <v>1200</v>
       </c>
       <c r="C606" t="s">
-        <v>4075</v>
+        <v>4072</v>
       </c>
       <c r="D606">
         <v>217151607</v>
@@ -23923,7 +23915,7 @@
         <v>1205</v>
       </c>
       <c r="C609" t="s">
-        <v>4076</v>
+        <v>4073</v>
       </c>
       <c r="D609">
         <v>292551365</v>
@@ -24697,7 +24689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>653</v>
       </c>
@@ -24705,7 +24697,7 @@
         <v>1296</v>
       </c>
       <c r="C655" s="1" t="s">
-        <v>4077</v>
+        <v>4074</v>
       </c>
       <c r="D655">
         <v>7.2311908022129101E+17</v>
@@ -25793,7 +25785,7 @@
         <v>1423</v>
       </c>
       <c r="C719" t="s">
-        <v>4078</v>
+        <v>4075</v>
       </c>
       <c r="D719">
         <v>22379873</v>
@@ -25810,7 +25802,7 @@
         <v>1424</v>
       </c>
       <c r="C720" t="s">
-        <v>4079</v>
+        <v>4076</v>
       </c>
       <c r="D720">
         <v>38167665</v>
@@ -26677,7 +26669,7 @@
         <v>1525</v>
       </c>
       <c r="C771" t="s">
-        <v>4080</v>
+        <v>4077</v>
       </c>
       <c r="D771">
         <v>1.2256783985187599E+18</v>
@@ -27221,7 +27213,7 @@
         <v>1588</v>
       </c>
       <c r="C803" t="s">
-        <v>4081</v>
+        <v>4078</v>
       </c>
       <c r="D803">
         <v>275202267</v>
@@ -27238,7 +27230,7 @@
         <v>1589</v>
       </c>
       <c r="C804" t="s">
-        <v>4082</v>
+        <v>4079</v>
       </c>
       <c r="D804">
         <v>258202271</v>
@@ -27272,7 +27264,7 @@
         <v>1592</v>
       </c>
       <c r="C806" t="s">
-        <v>4083</v>
+        <v>4080</v>
       </c>
       <c r="D806">
         <v>162671127</v>
@@ -27799,7 +27791,7 @@
         <v>1654</v>
       </c>
       <c r="C837" t="s">
-        <v>4084</v>
+        <v>4081</v>
       </c>
       <c r="D837">
         <v>2026886997</v>
@@ -28292,7 +28284,7 @@
         <v>1711</v>
       </c>
       <c r="C866" t="s">
-        <v>4085</v>
+        <v>4082</v>
       </c>
       <c r="D866">
         <v>230156531</v>
@@ -28343,7 +28335,7 @@
         <v>1716</v>
       </c>
       <c r="C869" t="s">
-        <v>4086</v>
+        <v>4083</v>
       </c>
       <c r="D869">
         <v>129563351</v>
@@ -28598,7 +28590,7 @@
         <v>1745</v>
       </c>
       <c r="C884" t="s">
-        <v>4087</v>
+        <v>4084</v>
       </c>
       <c r="D884">
         <v>1.0376305272877752E+18</v>
@@ -29083,7 +29075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="913" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A913">
         <v>911</v>
       </c>
@@ -29091,7 +29083,7 @@
         <v>1802</v>
       </c>
       <c r="C913" s="1" t="s">
-        <v>4088</v>
+        <v>4085</v>
       </c>
       <c r="D913">
         <v>773851352</v>
@@ -29176,7 +29168,7 @@
         <v>1811</v>
       </c>
       <c r="C918" t="s">
-        <v>4089</v>
+        <v>4086</v>
       </c>
       <c r="D918">
         <v>272861860</v>
@@ -30689,7 +30681,7 @@
         <v>1989</v>
       </c>
       <c r="C1007" t="s">
-        <v>4090</v>
+        <v>4087</v>
       </c>
       <c r="D1007">
         <v>8.1695691800672294E+17</v>
@@ -31488,7 +31480,7 @@
         <v>2082</v>
       </c>
       <c r="C1054" t="s">
-        <v>4091</v>
+        <v>4088</v>
       </c>
       <c r="D1054">
         <v>98807288</v>
@@ -32976,7 +32968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1142">
         <v>1120</v>
       </c>
@@ -32984,7 +32976,7 @@
         <v>2258</v>
       </c>
       <c r="C1142" s="1" t="s">
-        <v>4092</v>
+        <v>4089</v>
       </c>
       <c r="D1142">
         <v>8.8325975938586214E+17</v>
@@ -33049,7 +33041,7 @@
         <v>1122</v>
       </c>
       <c r="B1146" t="s">
-        <v>4093</v>
+        <v>4090</v>
       </c>
       <c r="C1146" t="s">
         <v>2265</v>
@@ -33222,7 +33214,7 @@
         <v>2284</v>
       </c>
       <c r="C1156" t="s">
-        <v>4094</v>
+        <v>4091</v>
       </c>
       <c r="D1156">
         <v>393262968</v>
@@ -33375,7 +33367,7 @@
         <v>2301</v>
       </c>
       <c r="C1165" t="s">
-        <v>4095</v>
+        <v>4092</v>
       </c>
       <c r="D1165">
         <v>50787771</v>
@@ -34140,7 +34132,7 @@
         <v>2390</v>
       </c>
       <c r="C1210" t="s">
-        <v>4096</v>
+        <v>4093</v>
       </c>
       <c r="D1210">
         <v>7.8822086501269504E+17</v>
@@ -34327,7 +34319,7 @@
         <v>2412</v>
       </c>
       <c r="C1221" t="s">
-        <v>4097</v>
+        <v>4094</v>
       </c>
       <c r="D1221">
         <v>586769522</v>
@@ -34565,7 +34557,7 @@
         <v>2439</v>
       </c>
       <c r="C1235" t="s">
-        <v>4098</v>
+        <v>4095</v>
       </c>
       <c r="D1235">
         <v>9.5108092116329267E+17</v>
@@ -34625,7 +34617,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="1239" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1239" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1239">
         <v>1237</v>
       </c>
@@ -34633,7 +34625,7 @@
         <v>2446</v>
       </c>
       <c r="C1239" s="1" t="s">
-        <v>4099</v>
+        <v>4096</v>
       </c>
       <c r="D1239">
         <v>8.5513078721865702E+17</v>
@@ -34888,7 +34880,7 @@
         <v>2475</v>
       </c>
       <c r="C1254" t="s">
-        <v>4100</v>
+        <v>4097</v>
       </c>
       <c r="D1254">
         <v>1021930259</v>
@@ -34939,7 +34931,7 @@
         <v>2480</v>
       </c>
       <c r="C1257" t="s">
-        <v>4101</v>
+        <v>4098</v>
       </c>
       <c r="D1257">
         <v>271383025</v>
@@ -35041,7 +35033,7 @@
         <v>2491</v>
       </c>
       <c r="C1263" t="s">
-        <v>4102</v>
+        <v>4099</v>
       </c>
       <c r="D1263">
         <v>68986627</v>
@@ -35959,7 +35951,7 @@
         <v>2598</v>
       </c>
       <c r="C1317" t="s">
-        <v>4103</v>
+        <v>4100</v>
       </c>
       <c r="D1317">
         <v>160286019</v>
@@ -36189,7 +36181,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="1331" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1331" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1331">
         <v>1329</v>
       </c>
@@ -36197,7 +36189,7 @@
         <v>2625</v>
       </c>
       <c r="C1331" s="1" t="s">
-        <v>4104</v>
+        <v>4101</v>
       </c>
       <c r="D1331">
         <v>62273152</v>
@@ -36585,7 +36577,7 @@
         <v>1352</v>
       </c>
       <c r="B1354" t="s">
-        <v>4105</v>
+        <v>4102</v>
       </c>
       <c r="C1354" t="s">
         <v>2670</v>
@@ -36724,7 +36716,7 @@
         <v>2685</v>
       </c>
       <c r="C1362" t="s">
-        <v>4106</v>
+        <v>4103</v>
       </c>
       <c r="D1362">
         <v>2811288270</v>
@@ -37557,7 +37549,7 @@
         <v>2782</v>
       </c>
       <c r="C1411" t="s">
-        <v>4107</v>
+        <v>4104</v>
       </c>
       <c r="D1411">
         <v>1.21167620322287E+18</v>
@@ -37863,7 +37855,7 @@
         <v>2817</v>
       </c>
       <c r="C1429" t="s">
-        <v>4108</v>
+        <v>4105</v>
       </c>
       <c r="D1429">
         <v>27620601</v>
@@ -40002,7 +39994,7 @@
         <v>1553</v>
       </c>
       <c r="B1555" t="s">
-        <v>4109</v>
+        <v>4106</v>
       </c>
       <c r="C1555" t="s">
         <v>3068</v>
@@ -40150,15 +40142,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1564" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1564" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1564">
         <v>1562</v>
       </c>
       <c r="B1564" t="s">
         <v>3085</v>
       </c>
-      <c r="C1564" t="s">
-        <v>3086</v>
+      <c r="C1564" s="1" t="s">
+        <v>4149</v>
       </c>
       <c r="D1564">
         <v>1239289019</v>
@@ -40172,10 +40164,10 @@
         <v>1563</v>
       </c>
       <c r="B1565" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C1565" t="s">
         <v>3087</v>
-      </c>
-      <c r="C1565" t="s">
-        <v>3088</v>
       </c>
       <c r="D1565">
         <v>1.367202909516161E+18</v>
@@ -40189,10 +40181,10 @@
         <v>1562</v>
       </c>
       <c r="B1566" t="s">
+        <v>3088</v>
+      </c>
+      <c r="C1566" t="s">
         <v>3089</v>
-      </c>
-      <c r="C1566" t="s">
-        <v>3090</v>
       </c>
       <c r="D1566">
         <v>1131092102</v>
@@ -40206,10 +40198,10 @@
         <v>1565</v>
       </c>
       <c r="B1567" t="s">
+        <v>3090</v>
+      </c>
+      <c r="C1567" t="s">
         <v>3091</v>
-      </c>
-      <c r="C1567" t="s">
-        <v>3092</v>
       </c>
       <c r="D1567">
         <v>122102353</v>
@@ -40223,10 +40215,10 @@
         <v>1566</v>
       </c>
       <c r="B1568" t="s">
+        <v>3092</v>
+      </c>
+      <c r="C1568" t="s">
         <v>3093</v>
-      </c>
-      <c r="C1568" t="s">
-        <v>3094</v>
       </c>
       <c r="D1568">
         <v>1296522153</v>
@@ -40240,10 +40232,10 @@
         <v>1567</v>
       </c>
       <c r="B1569" t="s">
+        <v>3094</v>
+      </c>
+      <c r="C1569" t="s">
         <v>3095</v>
-      </c>
-      <c r="C1569" t="s">
-        <v>3096</v>
       </c>
       <c r="D1569">
         <v>1391875208</v>
@@ -40257,10 +40249,10 @@
         <v>1568</v>
       </c>
       <c r="B1570" t="s">
+        <v>3096</v>
+      </c>
+      <c r="C1570" t="s">
         <v>3097</v>
-      </c>
-      <c r="C1570" t="s">
-        <v>3098</v>
       </c>
       <c r="D1570">
         <v>139207967</v>
@@ -40274,10 +40266,10 @@
         <v>1569</v>
       </c>
       <c r="B1571" t="s">
+        <v>3098</v>
+      </c>
+      <c r="C1571" t="s">
         <v>3099</v>
-      </c>
-      <c r="C1571" t="s">
-        <v>3100</v>
       </c>
       <c r="D1571">
         <v>1223622832</v>
@@ -40291,10 +40283,10 @@
         <v>1570</v>
       </c>
       <c r="B1572" t="s">
+        <v>3100</v>
+      </c>
+      <c r="C1572" t="s">
         <v>3101</v>
-      </c>
-      <c r="C1572" t="s">
-        <v>3102</v>
       </c>
       <c r="D1572">
         <v>1225265288</v>
@@ -40308,10 +40300,10 @@
         <v>1571</v>
       </c>
       <c r="B1573" t="s">
+        <v>3102</v>
+      </c>
+      <c r="C1573" t="s">
         <v>3103</v>
-      </c>
-      <c r="C1573" t="s">
-        <v>3104</v>
       </c>
       <c r="D1573">
         <v>1275732592</v>
@@ -40325,10 +40317,10 @@
         <v>1572</v>
       </c>
       <c r="B1574" t="s">
+        <v>3104</v>
+      </c>
+      <c r="C1574" t="s">
         <v>3105</v>
-      </c>
-      <c r="C1574" t="s">
-        <v>3106</v>
       </c>
       <c r="D1574">
         <v>150372237</v>
@@ -40342,10 +40334,10 @@
         <v>1573</v>
       </c>
       <c r="B1575" t="s">
+        <v>3106</v>
+      </c>
+      <c r="C1575" t="s">
         <v>3107</v>
-      </c>
-      <c r="C1575" t="s">
-        <v>3108</v>
       </c>
       <c r="D1575">
         <v>1522735192</v>
@@ -40359,10 +40351,10 @@
         <v>1572</v>
       </c>
       <c r="B1576" t="s">
+        <v>3108</v>
+      </c>
+      <c r="C1576" t="s">
         <v>3109</v>
-      </c>
-      <c r="C1576" t="s">
-        <v>3110</v>
       </c>
       <c r="D1576">
         <v>1530171613</v>
@@ -40376,10 +40368,10 @@
         <v>1575</v>
       </c>
       <c r="B1577" t="s">
+        <v>3110</v>
+      </c>
+      <c r="C1577" t="s">
         <v>3111</v>
-      </c>
-      <c r="C1577" t="s">
-        <v>3112</v>
       </c>
       <c r="D1577">
         <v>15686106</v>
@@ -40393,10 +40385,10 @@
         <v>1576</v>
       </c>
       <c r="B1578" t="s">
+        <v>3112</v>
+      </c>
+      <c r="C1578" t="s">
         <v>3113</v>
-      </c>
-      <c r="C1578" t="s">
-        <v>3114</v>
       </c>
       <c r="D1578">
         <v>162398888</v>
@@ -40410,10 +40402,10 @@
         <v>1577</v>
       </c>
       <c r="B1579" t="s">
+        <v>3114</v>
+      </c>
+      <c r="C1579" t="s">
         <v>3115</v>
-      </c>
-      <c r="C1579" t="s">
-        <v>3116</v>
       </c>
       <c r="D1579">
         <v>16255921</v>
@@ -40427,10 +40419,10 @@
         <v>1578</v>
       </c>
       <c r="B1580" t="s">
+        <v>3116</v>
+      </c>
+      <c r="C1580" t="s">
         <v>3117</v>
-      </c>
-      <c r="C1580" t="s">
-        <v>3118</v>
       </c>
       <c r="D1580">
         <v>16557297</v>
@@ -40444,10 +40436,10 @@
         <v>1579</v>
       </c>
       <c r="B1581" t="s">
+        <v>3118</v>
+      </c>
+      <c r="C1581" t="s">
         <v>3119</v>
-      </c>
-      <c r="C1581" t="s">
-        <v>3120</v>
       </c>
       <c r="D1581">
         <v>16705726</v>
@@ -40461,10 +40453,10 @@
         <v>1580</v>
       </c>
       <c r="B1582" t="s">
+        <v>3120</v>
+      </c>
+      <c r="C1582" t="s">
         <v>3121</v>
-      </c>
-      <c r="C1582" t="s">
-        <v>3122</v>
       </c>
       <c r="D1582">
         <v>16808099</v>
@@ -40478,10 +40470,10 @@
         <v>1581</v>
       </c>
       <c r="B1583" t="s">
+        <v>3122</v>
+      </c>
+      <c r="C1583" t="s">
         <v>3123</v>
-      </c>
-      <c r="C1583" t="s">
-        <v>3124</v>
       </c>
       <c r="D1583">
         <v>172269309</v>
@@ -40495,10 +40487,10 @@
         <v>1582</v>
       </c>
       <c r="B1584" t="s">
-        <v>3125</v>
+        <v>3124</v>
       </c>
       <c r="C1584" t="s">
-        <v>4110</v>
+        <v>4107</v>
       </c>
       <c r="D1584">
         <v>17752770</v>
@@ -40512,10 +40504,10 @@
         <v>1583</v>
       </c>
       <c r="B1585" t="s">
+        <v>3125</v>
+      </c>
+      <c r="C1585" t="s">
         <v>3126</v>
-      </c>
-      <c r="C1585" t="s">
-        <v>3127</v>
       </c>
       <c r="D1585">
         <v>1862781722</v>
@@ -40529,10 +40521,10 @@
         <v>1582</v>
       </c>
       <c r="B1586" t="s">
+        <v>3127</v>
+      </c>
+      <c r="C1586" t="s">
         <v>3128</v>
-      </c>
-      <c r="C1586" t="s">
-        <v>3129</v>
       </c>
       <c r="D1586">
         <v>2317202160</v>
@@ -40546,10 +40538,10 @@
         <v>1585</v>
       </c>
       <c r="B1587" t="s">
+        <v>3129</v>
+      </c>
+      <c r="C1587" t="s">
         <v>3130</v>
-      </c>
-      <c r="C1587" t="s">
-        <v>3131</v>
       </c>
       <c r="D1587">
         <v>221008237</v>
@@ -40563,10 +40555,10 @@
         <v>1586</v>
       </c>
       <c r="B1588" t="s">
+        <v>3131</v>
+      </c>
+      <c r="C1588" t="s">
         <v>3132</v>
-      </c>
-      <c r="C1588" t="s">
-        <v>3133</v>
       </c>
       <c r="D1588">
         <v>2527808233</v>
@@ -40580,10 +40572,10 @@
         <v>1587</v>
       </c>
       <c r="B1589" t="s">
+        <v>3133</v>
+      </c>
+      <c r="C1589" t="s">
         <v>3134</v>
-      </c>
-      <c r="C1589" t="s">
-        <v>3135</v>
       </c>
       <c r="D1589">
         <v>28066013</v>
@@ -40597,10 +40589,10 @@
         <v>1588</v>
       </c>
       <c r="B1590" t="s">
+        <v>3135</v>
+      </c>
+      <c r="C1590" t="s">
         <v>3136</v>
-      </c>
-      <c r="C1590" t="s">
-        <v>3137</v>
       </c>
       <c r="D1590">
         <v>29858729</v>
@@ -40614,10 +40606,10 @@
         <v>1589</v>
       </c>
       <c r="B1591" t="s">
+        <v>3137</v>
+      </c>
+      <c r="C1591" t="s">
         <v>3138</v>
-      </c>
-      <c r="C1591" t="s">
-        <v>3139</v>
       </c>
       <c r="D1591">
         <v>39999872</v>
@@ -40631,10 +40623,10 @@
         <v>1590</v>
       </c>
       <c r="B1592" t="s">
+        <v>3139</v>
+      </c>
+      <c r="C1592" t="s">
         <v>3140</v>
-      </c>
-      <c r="C1592" t="s">
-        <v>3141</v>
       </c>
       <c r="D1592">
         <v>2097559123</v>
@@ -40648,10 +40640,10 @@
         <v>1591</v>
       </c>
       <c r="B1593" t="s">
+        <v>3141</v>
+      </c>
+      <c r="C1593" t="s">
         <v>3142</v>
-      </c>
-      <c r="C1593" t="s">
-        <v>3143</v>
       </c>
       <c r="D1593">
         <v>2130621822</v>
@@ -40665,10 +40657,10 @@
         <v>1592</v>
       </c>
       <c r="B1594" t="s">
+        <v>3143</v>
+      </c>
+      <c r="C1594" t="s">
         <v>3144</v>
-      </c>
-      <c r="C1594" t="s">
-        <v>3145</v>
       </c>
       <c r="D1594">
         <v>222678902</v>
@@ -40682,10 +40674,10 @@
         <v>1593</v>
       </c>
       <c r="B1595" t="s">
+        <v>3145</v>
+      </c>
+      <c r="C1595" t="s">
         <v>3146</v>
-      </c>
-      <c r="C1595" t="s">
-        <v>3147</v>
       </c>
       <c r="D1595">
         <v>272261226</v>
@@ -40699,10 +40691,10 @@
         <v>1592</v>
       </c>
       <c r="B1596" t="s">
+        <v>3147</v>
+      </c>
+      <c r="C1596" t="s">
         <v>3148</v>
-      </c>
-      <c r="C1596" t="s">
-        <v>3149</v>
       </c>
       <c r="D1596">
         <v>2875912270</v>
@@ -40716,10 +40708,10 @@
         <v>1595</v>
       </c>
       <c r="B1597" t="s">
+        <v>3149</v>
+      </c>
+      <c r="C1597" t="s">
         <v>3150</v>
-      </c>
-      <c r="C1597" t="s">
-        <v>3151</v>
       </c>
       <c r="D1597">
         <v>52119203</v>
@@ -40733,10 +40725,10 @@
         <v>1596</v>
       </c>
       <c r="B1598" t="s">
+        <v>3151</v>
+      </c>
+      <c r="C1598" t="s">
         <v>3152</v>
-      </c>
-      <c r="C1598" t="s">
-        <v>3153</v>
       </c>
       <c r="D1598">
         <v>569166756</v>
@@ -40750,10 +40742,10 @@
         <v>1597</v>
       </c>
       <c r="B1599" t="s">
+        <v>3153</v>
+      </c>
+      <c r="C1599" t="s">
         <v>3154</v>
-      </c>
-      <c r="C1599" t="s">
-        <v>3155</v>
       </c>
       <c r="D1599">
         <v>572222501</v>
@@ -40767,10 +40759,10 @@
         <v>1598</v>
       </c>
       <c r="B1600" t="s">
+        <v>3155</v>
+      </c>
+      <c r="C1600" t="s">
         <v>3156</v>
-      </c>
-      <c r="C1600" t="s">
-        <v>3157</v>
       </c>
       <c r="D1600">
         <v>609972369</v>
@@ -40784,10 +40776,10 @@
         <v>1599</v>
       </c>
       <c r="B1601" t="s">
+        <v>3157</v>
+      </c>
+      <c r="C1601" t="s">
         <v>3158</v>
-      </c>
-      <c r="C1601" t="s">
-        <v>3159</v>
       </c>
       <c r="D1601">
         <v>728851762</v>
@@ -40801,10 +40793,10 @@
         <v>1600</v>
       </c>
       <c r="B1602" t="s">
+        <v>3159</v>
+      </c>
+      <c r="C1602" t="s">
         <v>3160</v>
-      </c>
-      <c r="C1602" t="s">
-        <v>3161</v>
       </c>
       <c r="D1602">
         <v>7.5075233670066586E+17</v>
@@ -40818,10 +40810,10 @@
         <v>1601</v>
       </c>
       <c r="B1603" t="s">
+        <v>3161</v>
+      </c>
+      <c r="C1603" t="s">
         <v>3162</v>
-      </c>
-      <c r="C1603" t="s">
-        <v>3163</v>
       </c>
       <c r="D1603">
         <v>7.8172772089789197E+17</v>
@@ -40835,10 +40827,10 @@
         <v>1602</v>
       </c>
       <c r="B1604" t="s">
+        <v>3163</v>
+      </c>
+      <c r="C1604" t="s">
         <v>3164</v>
-      </c>
-      <c r="C1604" t="s">
-        <v>3165</v>
       </c>
       <c r="D1604">
         <v>7.8629820283282202E+17</v>
@@ -40852,10 +40844,10 @@
         <v>1603</v>
       </c>
       <c r="B1605" t="s">
+        <v>3165</v>
+      </c>
+      <c r="C1605" t="s">
         <v>3166</v>
-      </c>
-      <c r="C1605" t="s">
-        <v>3167</v>
       </c>
       <c r="D1605">
         <v>805308596</v>
@@ -40869,10 +40861,10 @@
         <v>1602</v>
       </c>
       <c r="B1606" t="s">
+        <v>3167</v>
+      </c>
+      <c r="C1606" t="s">
         <v>3168</v>
-      </c>
-      <c r="C1606" t="s">
-        <v>3169</v>
       </c>
       <c r="D1606">
         <v>81392072</v>
@@ -40886,10 +40878,10 @@
         <v>1605</v>
       </c>
       <c r="B1607" t="s">
+        <v>3169</v>
+      </c>
+      <c r="C1607" t="s">
         <v>3170</v>
-      </c>
-      <c r="C1607" t="s">
-        <v>3171</v>
       </c>
       <c r="D1607">
         <v>8.1526923309002304E+17</v>
@@ -40903,10 +40895,10 @@
         <v>1606</v>
       </c>
       <c r="B1608" t="s">
+        <v>3171</v>
+      </c>
+      <c r="C1608" t="s">
         <v>3172</v>
-      </c>
-      <c r="C1608" t="s">
-        <v>3173</v>
       </c>
       <c r="D1608">
         <v>8.286239989216297E+17</v>
@@ -40920,10 +40912,10 @@
         <v>1607</v>
       </c>
       <c r="B1609" t="s">
+        <v>3173</v>
+      </c>
+      <c r="C1609" t="s">
         <v>3174</v>
-      </c>
-      <c r="C1609" t="s">
-        <v>3175</v>
       </c>
       <c r="D1609">
         <v>83322791</v>
@@ -40937,10 +40929,10 @@
         <v>1608</v>
       </c>
       <c r="B1610" t="s">
+        <v>3175</v>
+      </c>
+      <c r="C1610" t="s">
         <v>3176</v>
-      </c>
-      <c r="C1610" t="s">
-        <v>3177</v>
       </c>
       <c r="D1610">
         <v>835521662</v>
@@ -40954,10 +40946,10 @@
         <v>1609</v>
       </c>
       <c r="B1611" t="s">
+        <v>3177</v>
+      </c>
+      <c r="C1611" t="s">
         <v>3178</v>
-      </c>
-      <c r="C1611" t="s">
-        <v>3179</v>
       </c>
       <c r="D1611">
         <v>83795057</v>
@@ -40971,10 +40963,10 @@
         <v>1610</v>
       </c>
       <c r="B1612" t="s">
+        <v>3179</v>
+      </c>
+      <c r="C1612" t="s">
         <v>3180</v>
-      </c>
-      <c r="C1612" t="s">
-        <v>3181</v>
       </c>
       <c r="D1612">
         <v>8.2861899301550106E+17</v>
@@ -40988,10 +40980,10 @@
         <v>1611</v>
       </c>
       <c r="B1613" t="s">
+        <v>3181</v>
+      </c>
+      <c r="C1613" t="s">
         <v>3182</v>
-      </c>
-      <c r="C1613" t="s">
-        <v>3183</v>
       </c>
       <c r="D1613">
         <v>8.673515657572393E+17</v>
@@ -41005,10 +40997,10 @@
         <v>1612</v>
       </c>
       <c r="B1614" t="s">
+        <v>3183</v>
+      </c>
+      <c r="C1614" t="s">
         <v>3184</v>
-      </c>
-      <c r="C1614" t="s">
-        <v>3185</v>
       </c>
       <c r="D1614">
         <v>8.8128029802391603E+17</v>
@@ -41022,10 +41014,10 @@
         <v>1613</v>
       </c>
       <c r="B1615" t="s">
+        <v>3185</v>
+      </c>
+      <c r="C1615" t="s">
         <v>3186</v>
-      </c>
-      <c r="C1615" t="s">
-        <v>3187</v>
       </c>
       <c r="D1615">
         <v>9.0551621225725798E+17</v>
@@ -41039,10 +41031,10 @@
         <v>1612</v>
       </c>
       <c r="B1616" t="s">
+        <v>3187</v>
+      </c>
+      <c r="C1616" t="s">
         <v>3188</v>
-      </c>
-      <c r="C1616" t="s">
-        <v>3189</v>
       </c>
       <c r="D1616">
         <v>9.2053261517775296E+17</v>
@@ -41056,10 +41048,10 @@
         <v>1615</v>
       </c>
       <c r="B1617" t="s">
+        <v>3189</v>
+      </c>
+      <c r="C1617" t="s">
         <v>3190</v>
-      </c>
-      <c r="C1617" t="s">
-        <v>3191</v>
       </c>
       <c r="D1617">
         <v>92363832</v>
@@ -41073,16 +41065,16 @@
         <v>1616</v>
       </c>
       <c r="B1618" t="s">
+        <v>3191</v>
+      </c>
+      <c r="C1618" t="s">
         <v>3192</v>
-      </c>
-      <c r="C1618" t="s">
-        <v>3193</v>
       </c>
       <c r="D1618">
         <v>1.2131557029225201E+18</v>
       </c>
       <c r="E1618" t="s">
-        <v>3194</v>
+        <v>3193</v>
       </c>
     </row>
     <row r="1619" spans="1:5" x14ac:dyDescent="0.35">
@@ -41090,16 +41082,16 @@
         <v>1617</v>
       </c>
       <c r="B1619" t="s">
+        <v>3194</v>
+      </c>
+      <c r="C1619" t="s">
         <v>3195</v>
-      </c>
-      <c r="C1619" t="s">
-        <v>3196</v>
       </c>
       <c r="D1619">
         <v>1.38392152931298E+18</v>
       </c>
       <c r="E1619" t="s">
-        <v>3195</v>
+        <v>3194</v>
       </c>
     </row>
     <row r="1620" spans="1:5" x14ac:dyDescent="0.35">
@@ -41107,16 +41099,16 @@
         <v>1618</v>
       </c>
       <c r="B1620" t="s">
+        <v>3196</v>
+      </c>
+      <c r="C1620" t="s">
         <v>3197</v>
-      </c>
-      <c r="C1620" t="s">
-        <v>3198</v>
       </c>
       <c r="D1620">
         <v>1.3233626893221199E+18</v>
       </c>
       <c r="E1620" t="s">
-        <v>3199</v>
+        <v>3198</v>
       </c>
     </row>
     <row r="1621" spans="1:5" x14ac:dyDescent="0.35">
@@ -41124,16 +41116,16 @@
         <v>1619</v>
       </c>
       <c r="B1621" t="s">
+        <v>3199</v>
+      </c>
+      <c r="C1621" t="s">
         <v>3200</v>
-      </c>
-      <c r="C1621" t="s">
-        <v>3201</v>
       </c>
       <c r="D1621">
         <v>1.2909271186715853E+18</v>
       </c>
       <c r="E1621" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row r="1622" spans="1:5" x14ac:dyDescent="0.35">
@@ -41141,67 +41133,67 @@
         <v>1620</v>
       </c>
       <c r="B1622" t="s">
+        <v>3202</v>
+      </c>
+      <c r="C1622" t="s">
         <v>3203</v>
-      </c>
-      <c r="C1622" t="s">
-        <v>3204</v>
       </c>
       <c r="D1622">
         <v>1.2776299277861901E+18</v>
       </c>
       <c r="E1622" t="s">
-        <v>3205</v>
-      </c>
-    </row>
-    <row r="1623" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1623">
         <v>1621</v>
       </c>
       <c r="B1623" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C1623" s="1" t="s">
-        <v>4111</v>
+        <v>4108</v>
       </c>
       <c r="D1623">
         <v>1.2721971395722801E+18</v>
       </c>
       <c r="E1623" t="s">
-        <v>3207</v>
-      </c>
-    </row>
-    <row r="1624" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A1624">
         <v>1622</v>
       </c>
       <c r="B1624" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="C1624" s="1" t="s">
-        <v>4112</v>
+        <v>4109</v>
       </c>
       <c r="D1624">
         <v>1.2583191283293499E+18</v>
       </c>
       <c r="E1624" t="s">
-        <v>3209</v>
-      </c>
-    </row>
-    <row r="1625" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3208</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A1625">
         <v>1623</v>
       </c>
       <c r="B1625" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="C1625" s="1" t="s">
-        <v>4113</v>
+        <v>4110</v>
       </c>
       <c r="D1625">
         <v>1.236311969952682E+18</v>
       </c>
       <c r="E1625" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="1626" spans="1:5" x14ac:dyDescent="0.35">
@@ -41209,16 +41201,16 @@
         <v>1622</v>
       </c>
       <c r="B1626" t="s">
+        <v>3211</v>
+      </c>
+      <c r="C1626" t="s">
         <v>3212</v>
-      </c>
-      <c r="C1626" t="s">
-        <v>3213</v>
       </c>
       <c r="D1626">
         <v>1.0090068660206838E+18</v>
       </c>
       <c r="E1626" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
     </row>
     <row r="1627" spans="1:5" x14ac:dyDescent="0.35">
@@ -41226,16 +41218,16 @@
         <v>1625</v>
       </c>
       <c r="B1627" t="s">
+        <v>3214</v>
+      </c>
+      <c r="C1627" t="s">
         <v>3215</v>
-      </c>
-      <c r="C1627" t="s">
-        <v>3216</v>
       </c>
       <c r="D1627">
         <v>8.6798626739227034E+17</v>
       </c>
       <c r="E1627" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
     </row>
     <row r="1628" spans="1:5" x14ac:dyDescent="0.35">
@@ -41243,16 +41235,16 @@
         <v>1626</v>
       </c>
       <c r="B1628" t="s">
+        <v>3217</v>
+      </c>
+      <c r="C1628" t="s">
         <v>3218</v>
-      </c>
-      <c r="C1628" t="s">
-        <v>3219</v>
       </c>
       <c r="D1628">
         <v>8.6552230965888998E+17</v>
       </c>
       <c r="E1628" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
     </row>
     <row r="1629" spans="1:5" x14ac:dyDescent="0.35">
@@ -41260,16 +41252,16 @@
         <v>1627</v>
       </c>
       <c r="B1629" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1629" t="s">
         <v>3221</v>
-      </c>
-      <c r="C1629" t="s">
-        <v>3222</v>
       </c>
       <c r="D1629">
         <v>8.2183072336201101E+17</v>
       </c>
       <c r="E1629" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="1630" spans="1:5" x14ac:dyDescent="0.35">
@@ -41277,16 +41269,16 @@
         <v>1628</v>
       </c>
       <c r="B1630" t="s">
+        <v>3223</v>
+      </c>
+      <c r="C1630" t="s">
         <v>3224</v>
-      </c>
-      <c r="C1630" t="s">
-        <v>3225</v>
       </c>
       <c r="D1630">
         <v>8.0715705191071744E+17</v>
       </c>
       <c r="E1630" t="s">
-        <v>3226</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="1631" spans="1:5" x14ac:dyDescent="0.35">
@@ -41294,16 +41286,16 @@
         <v>1629</v>
       </c>
       <c r="B1631" t="s">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="C1631" t="s">
-        <v>3228</v>
+        <v>4152</v>
       </c>
       <c r="D1631">
         <v>7.2523895932999296E+17</v>
       </c>
       <c r="E1631" t="s">
-        <v>3229</v>
+        <v>3227</v>
       </c>
     </row>
     <row r="1632" spans="1:5" x14ac:dyDescent="0.35">
@@ -41311,16 +41303,16 @@
         <v>1630</v>
       </c>
       <c r="B1632" t="s">
-        <v>3230</v>
+        <v>3228</v>
       </c>
       <c r="C1632" t="s">
-        <v>3231</v>
+        <v>3229</v>
       </c>
       <c r="D1632">
         <v>2829583201</v>
       </c>
       <c r="E1632" t="s">
-        <v>3232</v>
+        <v>3230</v>
       </c>
     </row>
     <row r="1633" spans="1:5" x14ac:dyDescent="0.35">
@@ -41328,10 +41320,10 @@
         <v>1631</v>
       </c>
       <c r="B1633" t="s">
-        <v>3233</v>
+        <v>3231</v>
       </c>
       <c r="C1633" s="1" t="s">
-        <v>4114</v>
+        <v>4151</v>
       </c>
       <c r="D1633">
         <v>3383137925</v>
@@ -41345,16 +41337,16 @@
         <v>1632</v>
       </c>
       <c r="B1634" t="s">
-        <v>3234</v>
+        <v>3232</v>
       </c>
       <c r="C1634" t="s">
-        <v>3235</v>
+        <v>3233</v>
       </c>
       <c r="D1634">
         <v>3325013513</v>
       </c>
       <c r="E1634" t="s">
-        <v>3236</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="1635" spans="1:5" x14ac:dyDescent="0.35">
@@ -41362,16 +41354,16 @@
         <v>1633</v>
       </c>
       <c r="B1635" t="s">
-        <v>3237</v>
+        <v>3235</v>
       </c>
       <c r="C1635" t="s">
-        <v>3238</v>
+        <v>3236</v>
       </c>
       <c r="D1635">
         <v>3131209213</v>
       </c>
       <c r="E1635" t="s">
-        <v>3239</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="1636" spans="1:5" x14ac:dyDescent="0.35">
@@ -41379,10 +41371,10 @@
         <v>1632</v>
       </c>
       <c r="B1636" t="s">
-        <v>3240</v>
+        <v>3238</v>
       </c>
       <c r="C1636" t="s">
-        <v>4115</v>
+        <v>4111</v>
       </c>
       <c r="D1636">
         <v>3052255352</v>
@@ -41396,16 +41388,16 @@
         <v>1635</v>
       </c>
       <c r="B1637" t="s">
-        <v>3241</v>
+        <v>3239</v>
       </c>
       <c r="C1637" t="s">
-        <v>3242</v>
+        <v>3240</v>
       </c>
       <c r="D1637">
         <v>2932079226</v>
       </c>
       <c r="E1637" t="s">
-        <v>3243</v>
+        <v>3241</v>
       </c>
     </row>
     <row r="1638" spans="1:5" x14ac:dyDescent="0.35">
@@ -41413,16 +41405,16 @@
         <v>1636</v>
       </c>
       <c r="B1638" t="s">
-        <v>3244</v>
+        <v>3242</v>
       </c>
       <c r="C1638" t="s">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="D1638">
         <v>2367527278</v>
       </c>
       <c r="E1638" t="s">
-        <v>3246</v>
+        <v>3244</v>
       </c>
     </row>
     <row r="1639" spans="1:5" x14ac:dyDescent="0.35">
@@ -41430,16 +41422,16 @@
         <v>1637</v>
       </c>
       <c r="B1639" t="s">
-        <v>3247</v>
+        <v>3245</v>
       </c>
       <c r="C1639" t="s">
-        <v>3248</v>
+        <v>3246</v>
       </c>
       <c r="D1639">
         <v>2238168199</v>
       </c>
       <c r="E1639" t="s">
-        <v>3249</v>
+        <v>3247</v>
       </c>
     </row>
     <row r="1640" spans="1:5" x14ac:dyDescent="0.35">
@@ -41447,16 +41439,16 @@
         <v>1638</v>
       </c>
       <c r="B1640" t="s">
-        <v>3250</v>
+        <v>3248</v>
       </c>
       <c r="C1640" t="s">
-        <v>3251</v>
+        <v>3249</v>
       </c>
       <c r="D1640">
         <v>1620269597</v>
       </c>
       <c r="E1640" t="s">
-        <v>3252</v>
+        <v>3250</v>
       </c>
     </row>
     <row r="1641" spans="1:5" x14ac:dyDescent="0.35">
@@ -41464,10 +41456,10 @@
         <v>1639</v>
       </c>
       <c r="B1641" t="s">
-        <v>3253</v>
+        <v>3251</v>
       </c>
       <c r="C1641" t="s">
-        <v>3254</v>
+        <v>3252</v>
       </c>
       <c r="D1641">
         <v>1536225851</v>
@@ -41481,10 +41473,10 @@
         <v>1620</v>
       </c>
       <c r="B1642" t="s">
-        <v>3255</v>
+        <v>3253</v>
       </c>
       <c r="C1642" t="s">
-        <v>3256</v>
+        <v>3254</v>
       </c>
       <c r="D1642">
         <v>628775217</v>
@@ -41498,16 +41490,16 @@
         <v>1621</v>
       </c>
       <c r="B1643" t="s">
-        <v>3257</v>
+        <v>3255</v>
       </c>
       <c r="C1643" t="s">
-        <v>3258</v>
+        <v>3256</v>
       </c>
       <c r="D1643">
         <v>216276382</v>
       </c>
       <c r="E1643" t="s">
-        <v>3259</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="1644" spans="1:5" x14ac:dyDescent="0.35">
@@ -41515,16 +41507,16 @@
         <v>1622</v>
       </c>
       <c r="B1644" t="s">
-        <v>3260</v>
-      </c>
-      <c r="C1644" t="s">
-        <v>3261</v>
+        <v>3258</v>
+      </c>
+      <c r="C1644" s="1" t="s">
+        <v>4150</v>
       </c>
       <c r="D1644">
         <v>86928808</v>
       </c>
       <c r="E1644" t="s">
-        <v>3262</v>
+        <v>3259</v>
       </c>
     </row>
     <row r="1645" spans="1:5" x14ac:dyDescent="0.35">
@@ -41532,10 +41524,10 @@
         <v>1623</v>
       </c>
       <c r="B1645" t="s">
-        <v>3263</v>
+        <v>3260</v>
       </c>
       <c r="C1645" t="s">
-        <v>3264</v>
+        <v>3261</v>
       </c>
       <c r="D1645">
         <v>2110372301</v>
@@ -41549,10 +41541,10 @@
         <v>1622</v>
       </c>
       <c r="B1646" t="s">
-        <v>3265</v>
+        <v>3262</v>
       </c>
       <c r="C1646" t="s">
-        <v>3266</v>
+        <v>3263</v>
       </c>
       <c r="D1646">
         <v>2710786593</v>
@@ -41566,10 +41558,10 @@
         <v>1625</v>
       </c>
       <c r="B1647" t="s">
-        <v>3267</v>
+        <v>3264</v>
       </c>
       <c r="C1647" t="s">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="D1647">
         <v>2267701010</v>
@@ -41583,10 +41575,10 @@
         <v>1626</v>
       </c>
       <c r="B1648" t="s">
-        <v>3269</v>
+        <v>3266</v>
       </c>
       <c r="C1648" t="s">
-        <v>3270</v>
+        <v>3267</v>
       </c>
       <c r="D1648">
         <v>8.3655322802212198E+17</v>
@@ -41600,10 +41592,10 @@
         <v>1627</v>
       </c>
       <c r="B1649" t="s">
-        <v>3271</v>
+        <v>3268</v>
       </c>
       <c r="C1649" t="s">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="D1649">
         <v>569832889</v>
@@ -41617,10 +41609,10 @@
         <v>1628</v>
       </c>
       <c r="B1650" t="s">
-        <v>3273</v>
+        <v>3270</v>
       </c>
       <c r="C1650" t="s">
-        <v>3274</v>
+        <v>3271</v>
       </c>
       <c r="D1650">
         <v>21528923</v>
@@ -41634,10 +41626,10 @@
         <v>1629</v>
       </c>
       <c r="B1651" t="s">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="C1651" t="s">
-        <v>3276</v>
+        <v>3273</v>
       </c>
       <c r="D1651">
         <v>36665085</v>
@@ -41651,10 +41643,10 @@
         <v>1650</v>
       </c>
       <c r="B1652" t="s">
-        <v>3277</v>
+        <v>3274</v>
       </c>
       <c r="C1652" t="s">
-        <v>3278</v>
+        <v>3275</v>
       </c>
       <c r="D1652">
         <v>36329898</v>
@@ -41668,10 +41660,10 @@
         <v>1651</v>
       </c>
       <c r="B1653" t="s">
-        <v>3279</v>
+        <v>3276</v>
       </c>
       <c r="C1653" t="s">
-        <v>3280</v>
+        <v>3277</v>
       </c>
       <c r="D1653">
         <v>18000923</v>
@@ -41685,10 +41677,10 @@
         <v>1652</v>
       </c>
       <c r="B1654" t="s">
-        <v>3281</v>
+        <v>3278</v>
       </c>
       <c r="C1654" t="s">
-        <v>3282</v>
+        <v>3279</v>
       </c>
       <c r="D1654">
         <v>1.2197512022653599E+18</v>
@@ -41702,10 +41694,10 @@
         <v>1653</v>
       </c>
       <c r="B1655" t="s">
-        <v>3283</v>
+        <v>3280</v>
       </c>
       <c r="C1655" t="s">
-        <v>3284</v>
+        <v>3281</v>
       </c>
       <c r="D1655">
         <v>1.2163887092626299E+18</v>
@@ -41719,10 +41711,10 @@
         <v>1652</v>
       </c>
       <c r="B1656" t="s">
-        <v>3285</v>
+        <v>3282</v>
       </c>
       <c r="C1656" t="s">
-        <v>3286</v>
+        <v>3283</v>
       </c>
       <c r="D1656">
         <v>1.2135366120682501E+18</v>
@@ -41736,10 +41728,10 @@
         <v>1655</v>
       </c>
       <c r="B1657" t="s">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="C1657" t="s">
-        <v>3288</v>
+        <v>3285</v>
       </c>
       <c r="D1657">
         <v>1.2098897206655201E+18</v>
@@ -41753,10 +41745,10 @@
         <v>1656</v>
       </c>
       <c r="B1658" t="s">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="C1658" t="s">
-        <v>3290</v>
+        <v>3287</v>
       </c>
       <c r="D1658">
         <v>1.3899801780388086E+18</v>
@@ -41770,10 +41762,10 @@
         <v>1657</v>
       </c>
       <c r="B1659" t="s">
-        <v>4116</v>
+        <v>4112</v>
       </c>
       <c r="C1659" t="s">
-        <v>3291</v>
+        <v>3288</v>
       </c>
       <c r="D1659">
         <v>1.3860757297801626E+18</v>
@@ -41787,10 +41779,10 @@
         <v>1658</v>
       </c>
       <c r="B1660" t="s">
-        <v>3292</v>
+        <v>3289</v>
       </c>
       <c r="C1660" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
       <c r="D1660">
         <v>1.3838211631518515E+18</v>
@@ -41804,10 +41796,10 @@
         <v>1659</v>
       </c>
       <c r="B1661" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
       <c r="C1661" t="s">
-        <v>3295</v>
+        <v>3292</v>
       </c>
       <c r="D1661">
         <v>1.3801078990920172E+18</v>
@@ -41821,10 +41813,10 @@
         <v>1660</v>
       </c>
       <c r="B1662" t="s">
-        <v>3296</v>
+        <v>3293</v>
       </c>
       <c r="C1662" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="D1662">
         <v>1.3728718590252101E+18</v>
@@ -41838,10 +41830,10 @@
         <v>1661</v>
       </c>
       <c r="B1663" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="C1663" t="s">
-        <v>3299</v>
+        <v>3296</v>
       </c>
       <c r="D1663">
         <v>1.37158018900029E+18</v>
@@ -41855,10 +41847,10 @@
         <v>1662</v>
       </c>
       <c r="B1664" t="s">
-        <v>3300</v>
+        <v>3297</v>
       </c>
       <c r="C1664" t="s">
-        <v>3301</v>
+        <v>3298</v>
       </c>
       <c r="D1664">
         <v>1.3623723818122299E+18</v>
@@ -41872,10 +41864,10 @@
         <v>1663</v>
       </c>
       <c r="B1665" t="s">
-        <v>3302</v>
+        <v>3299</v>
       </c>
       <c r="C1665" t="s">
-        <v>3303</v>
+        <v>3300</v>
       </c>
       <c r="D1665">
         <v>1.35952965219917E+18</v>
@@ -41889,10 +41881,10 @@
         <v>1662</v>
       </c>
       <c r="B1666" t="s">
-        <v>3304</v>
+        <v>3301</v>
       </c>
       <c r="C1666" t="s">
-        <v>3305</v>
+        <v>3302</v>
       </c>
       <c r="D1666">
         <v>1.3527881761502799E+18</v>
@@ -41906,10 +41898,10 @@
         <v>1665</v>
       </c>
       <c r="B1667" t="s">
-        <v>3306</v>
+        <v>3303</v>
       </c>
       <c r="C1667" t="s">
-        <v>3307</v>
+        <v>3304</v>
       </c>
       <c r="D1667">
         <v>1.3520905278981499E+18</v>
@@ -41923,10 +41915,10 @@
         <v>1666</v>
       </c>
       <c r="B1668" t="s">
-        <v>3308</v>
+        <v>3305</v>
       </c>
       <c r="C1668" t="s">
-        <v>3309</v>
+        <v>3306</v>
       </c>
       <c r="D1668">
         <v>1.3527225622605299E+18</v>
@@ -41940,10 +41932,10 @@
         <v>1667</v>
       </c>
       <c r="B1669" t="s">
-        <v>3310</v>
+        <v>3307</v>
       </c>
       <c r="C1669" t="s">
-        <v>3311</v>
+        <v>3308</v>
       </c>
       <c r="D1669">
         <v>1.3526279696621499E+18</v>
@@ -41957,10 +41949,10 @@
         <v>1668</v>
       </c>
       <c r="B1670" t="s">
-        <v>3312</v>
+        <v>3309</v>
       </c>
       <c r="C1670" t="s">
-        <v>3313</v>
+        <v>3310</v>
       </c>
       <c r="D1670">
         <v>1.32861229025021E+18</v>
@@ -41974,10 +41966,10 @@
         <v>1669</v>
       </c>
       <c r="B1671" t="s">
-        <v>3314</v>
+        <v>3311</v>
       </c>
       <c r="C1671" t="s">
-        <v>3315</v>
+        <v>3312</v>
       </c>
       <c r="D1671">
         <v>1.3385676117816238E+18</v>
@@ -41991,10 +41983,10 @@
         <v>1670</v>
       </c>
       <c r="B1672" t="s">
-        <v>3316</v>
+        <v>3313</v>
       </c>
       <c r="C1672" t="s">
-        <v>3317</v>
+        <v>3314</v>
       </c>
       <c r="D1672">
         <v>1.3370568105665536E+18</v>
@@ -42008,10 +42000,10 @@
         <v>1671</v>
       </c>
       <c r="B1673" t="s">
-        <v>3318</v>
+        <v>3315</v>
       </c>
       <c r="C1673" t="s">
-        <v>3319</v>
+        <v>3316</v>
       </c>
       <c r="D1673">
         <v>1.3356768690610627E+18</v>
@@ -42025,10 +42017,10 @@
         <v>1672</v>
       </c>
       <c r="B1674" t="s">
-        <v>3320</v>
+        <v>3317</v>
       </c>
       <c r="C1674" t="s">
-        <v>3321</v>
+        <v>3318</v>
       </c>
       <c r="D1674">
         <v>1.33561972290963E+18</v>
@@ -42042,10 +42034,10 @@
         <v>1673</v>
       </c>
       <c r="B1675" t="s">
-        <v>3322</v>
+        <v>3319</v>
       </c>
       <c r="C1675" t="s">
-        <v>3323</v>
+        <v>3320</v>
       </c>
       <c r="D1675">
         <v>1.3290191631262799E+18</v>
@@ -42059,10 +42051,10 @@
         <v>1672</v>
       </c>
       <c r="B1676" t="s">
-        <v>3324</v>
+        <v>3321</v>
       </c>
       <c r="C1676" t="s">
-        <v>3325</v>
+        <v>3322</v>
       </c>
       <c r="D1676">
         <v>1.3258596560156795E+18</v>
@@ -42076,10 +42068,10 @@
         <v>1675</v>
       </c>
       <c r="B1677" t="s">
-        <v>3326</v>
+        <v>3323</v>
       </c>
       <c r="C1677" t="s">
-        <v>3327</v>
+        <v>3324</v>
       </c>
       <c r="D1677">
         <v>1.3228111296352133E+18</v>
@@ -42093,10 +42085,10 @@
         <v>1676</v>
       </c>
       <c r="B1678" t="s">
-        <v>3328</v>
+        <v>3325</v>
       </c>
       <c r="C1678" t="s">
-        <v>3329</v>
+        <v>3326</v>
       </c>
       <c r="D1678">
         <v>1.3199212082223201E+18</v>
@@ -42110,10 +42102,10 @@
         <v>1677</v>
       </c>
       <c r="B1679" t="s">
-        <v>3330</v>
+        <v>3327</v>
       </c>
       <c r="C1679" t="s">
-        <v>3331</v>
+        <v>3328</v>
       </c>
       <c r="D1679">
         <v>1.3195705769571492E+18</v>
@@ -42127,10 +42119,10 @@
         <v>1678</v>
       </c>
       <c r="B1680" t="s">
-        <v>3332</v>
+        <v>3329</v>
       </c>
       <c r="C1680" t="s">
-        <v>3333</v>
+        <v>3330</v>
       </c>
       <c r="D1680">
         <v>1.3131873763789087E+18</v>
@@ -42144,10 +42136,10 @@
         <v>1679</v>
       </c>
       <c r="B1681" t="s">
-        <v>3334</v>
+        <v>3331</v>
       </c>
       <c r="C1681" t="s">
-        <v>3335</v>
+        <v>3332</v>
       </c>
       <c r="D1681">
         <v>1.31029178061856E+18</v>
@@ -42161,10 +42153,10 @@
         <v>1680</v>
       </c>
       <c r="B1682" t="s">
-        <v>3336</v>
+        <v>3333</v>
       </c>
       <c r="C1682" t="s">
-        <v>3337</v>
+        <v>3334</v>
       </c>
       <c r="D1682">
         <v>1.30975273202002E+18</v>
@@ -42178,10 +42170,10 @@
         <v>1681</v>
       </c>
       <c r="B1683" t="s">
-        <v>3338</v>
+        <v>3335</v>
       </c>
       <c r="C1683" t="s">
-        <v>3339</v>
+        <v>3336</v>
       </c>
       <c r="D1683">
         <v>1.3065039867912499E+18</v>
@@ -42195,10 +42187,10 @@
         <v>1682</v>
       </c>
       <c r="B1684" t="s">
-        <v>3340</v>
+        <v>3337</v>
       </c>
       <c r="C1684" t="s">
-        <v>3341</v>
+        <v>3338</v>
       </c>
       <c r="D1684">
         <v>1.2637867633713807E+18</v>
@@ -42212,10 +42204,10 @@
         <v>1683</v>
       </c>
       <c r="B1685" t="s">
-        <v>3342</v>
+        <v>3339</v>
       </c>
       <c r="C1685" t="s">
-        <v>3343</v>
+        <v>3340</v>
       </c>
       <c r="D1685">
         <v>1.2506633062868173E+18</v>
@@ -42229,10 +42221,10 @@
         <v>1682</v>
       </c>
       <c r="B1686" t="s">
-        <v>3344</v>
+        <v>3341</v>
       </c>
       <c r="C1686" t="s">
-        <v>3345</v>
+        <v>3342</v>
       </c>
       <c r="D1686">
         <v>1.22866269631822E+18</v>
@@ -42246,10 +42238,10 @@
         <v>1685</v>
       </c>
       <c r="B1687" t="s">
-        <v>3346</v>
+        <v>3343</v>
       </c>
       <c r="C1687" t="s">
-        <v>3347</v>
+        <v>3344</v>
       </c>
       <c r="D1687">
         <v>1.2389371770038886E+18</v>
@@ -42263,10 +42255,10 @@
         <v>1686</v>
       </c>
       <c r="B1688" t="s">
-        <v>3348</v>
+        <v>3345</v>
       </c>
       <c r="C1688" t="s">
-        <v>3349</v>
+        <v>3346</v>
       </c>
       <c r="D1688">
         <v>1.21725677762366E+18</v>
@@ -42280,10 +42272,10 @@
         <v>1687</v>
       </c>
       <c r="B1689" t="s">
-        <v>3350</v>
+        <v>3347</v>
       </c>
       <c r="C1689" t="s">
-        <v>3351</v>
+        <v>3348</v>
       </c>
       <c r="D1689">
         <v>1.20212723179629E+18</v>
@@ -42297,10 +42289,10 @@
         <v>1688</v>
       </c>
       <c r="B1690" t="s">
-        <v>3352</v>
+        <v>3349</v>
       </c>
       <c r="C1690" t="s">
-        <v>3353</v>
+        <v>3350</v>
       </c>
       <c r="D1690">
         <v>1.1939919901967852E+18</v>
@@ -42314,10 +42306,10 @@
         <v>1689</v>
       </c>
       <c r="B1691" t="s">
-        <v>3354</v>
+        <v>3351</v>
       </c>
       <c r="C1691" t="s">
-        <v>3355</v>
+        <v>3352</v>
       </c>
       <c r="D1691">
         <v>1.19381682351917E+18</v>
@@ -42331,10 +42323,10 @@
         <v>1690</v>
       </c>
       <c r="B1692" t="s">
-        <v>3356</v>
+        <v>3353</v>
       </c>
       <c r="C1692" t="s">
-        <v>3357</v>
+        <v>3354</v>
       </c>
       <c r="D1692">
         <v>1.17971530722062E+18</v>
@@ -42348,10 +42340,10 @@
         <v>1691</v>
       </c>
       <c r="B1693" t="s">
-        <v>3358</v>
+        <v>3355</v>
       </c>
       <c r="C1693" t="s">
-        <v>3359</v>
+        <v>3356</v>
       </c>
       <c r="D1693">
         <v>1.1660557652021199E+18</v>
@@ -42365,10 +42357,10 @@
         <v>1692</v>
       </c>
       <c r="B1694" t="s">
-        <v>3360</v>
+        <v>3357</v>
       </c>
       <c r="C1694" t="s">
-        <v>3361</v>
+        <v>3358</v>
       </c>
       <c r="D1694">
         <v>1.16226856228175E+18</v>
@@ -42382,10 +42374,10 @@
         <v>1693</v>
       </c>
       <c r="B1695" t="s">
-        <v>3362</v>
+        <v>3359</v>
       </c>
       <c r="C1695" t="s">
-        <v>3363</v>
+        <v>3360</v>
       </c>
       <c r="D1695">
         <v>1.16109838202082E+18</v>
@@ -42399,10 +42391,10 @@
         <v>1692</v>
       </c>
       <c r="B1696" t="s">
-        <v>3364</v>
+        <v>3361</v>
       </c>
       <c r="C1696" t="s">
-        <v>3365</v>
+        <v>3362</v>
       </c>
       <c r="D1696">
         <v>1.1572986707259E+18</v>
@@ -42416,10 +42408,10 @@
         <v>1695</v>
       </c>
       <c r="B1697" t="s">
-        <v>3366</v>
+        <v>3363</v>
       </c>
       <c r="C1697" t="s">
-        <v>3367</v>
+        <v>3364</v>
       </c>
       <c r="D1697">
         <v>1.10575272710129E+18</v>
@@ -42433,10 +42425,10 @@
         <v>1696</v>
       </c>
       <c r="B1698" t="s">
-        <v>3368</v>
+        <v>3365</v>
       </c>
       <c r="C1698" t="s">
-        <v>3369</v>
+        <v>3366</v>
       </c>
       <c r="D1698">
         <v>1.10230222275229E+18</v>
@@ -42450,10 +42442,10 @@
         <v>1697</v>
       </c>
       <c r="B1699" t="s">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="C1699" t="s">
-        <v>3371</v>
+        <v>3368</v>
       </c>
       <c r="D1699">
         <v>1.091722295572E+18</v>
@@ -42467,10 +42459,10 @@
         <v>1698</v>
       </c>
       <c r="B1700" t="s">
-        <v>3372</v>
+        <v>3369</v>
       </c>
       <c r="C1700" t="s">
-        <v>3373</v>
+        <v>3370</v>
       </c>
       <c r="D1700">
         <v>1.086178318230188E+18</v>
@@ -42484,10 +42476,10 @@
         <v>1699</v>
       </c>
       <c r="B1701" t="s">
-        <v>3374</v>
+        <v>3371</v>
       </c>
       <c r="C1701" t="s">
-        <v>3375</v>
+        <v>3372</v>
       </c>
       <c r="D1701">
         <v>1.06621853797E+18</v>
@@ -42501,10 +42493,10 @@
         <v>1700</v>
       </c>
       <c r="B1702" t="s">
-        <v>3376</v>
+        <v>3373</v>
       </c>
       <c r="C1702" t="s">
-        <v>3377</v>
+        <v>3374</v>
       </c>
       <c r="D1702">
         <v>1.0355777718530499E+18</v>
@@ -42518,10 +42510,10 @@
         <v>1701</v>
       </c>
       <c r="B1703" t="s">
-        <v>3378</v>
+        <v>3375</v>
       </c>
       <c r="C1703" t="s">
-        <v>4117</v>
+        <v>4113</v>
       </c>
       <c r="D1703">
         <v>1.02797689862163E+18</v>
@@ -42535,10 +42527,10 @@
         <v>1702</v>
       </c>
       <c r="B1704" t="s">
-        <v>3379</v>
+        <v>3376</v>
       </c>
       <c r="C1704" t="s">
-        <v>3380</v>
+        <v>3377</v>
       </c>
       <c r="D1704">
         <v>9.9703371632209203E+17</v>
@@ -42552,10 +42544,10 @@
         <v>1703</v>
       </c>
       <c r="B1705" t="s">
-        <v>3381</v>
+        <v>3378</v>
       </c>
       <c r="C1705" t="s">
-        <v>3382</v>
+        <v>3379</v>
       </c>
       <c r="D1705">
         <v>9.6082532613275238E+17</v>
@@ -42569,10 +42561,10 @@
         <v>1702</v>
       </c>
       <c r="B1706" t="s">
-        <v>3383</v>
+        <v>3380</v>
       </c>
       <c r="C1706" t="s">
-        <v>3384</v>
+        <v>3381</v>
       </c>
       <c r="D1706">
         <v>9.5660953331226304E+17</v>
@@ -42586,10 +42578,10 @@
         <v>1705</v>
       </c>
       <c r="B1707" t="s">
-        <v>3385</v>
+        <v>3382</v>
       </c>
       <c r="C1707" t="s">
-        <v>3386</v>
+        <v>3383</v>
       </c>
       <c r="D1707">
         <v>9.3623505879228506E+17</v>
@@ -42603,10 +42595,10 @@
         <v>1706</v>
       </c>
       <c r="B1708" t="s">
-        <v>3387</v>
+        <v>3384</v>
       </c>
       <c r="C1708" t="s">
-        <v>3388</v>
+        <v>3385</v>
       </c>
       <c r="D1708">
         <v>9.2528672192119002E+17</v>
@@ -42620,10 +42612,10 @@
         <v>1707</v>
       </c>
       <c r="B1709" t="s">
-        <v>3389</v>
+        <v>3386</v>
       </c>
       <c r="C1709" t="s">
-        <v>3390</v>
+        <v>3387</v>
       </c>
       <c r="D1709">
         <v>9.1278036793702899E+17</v>
@@ -42637,10 +42629,10 @@
         <v>1708</v>
       </c>
       <c r="B1710" t="s">
-        <v>3391</v>
+        <v>3388</v>
       </c>
       <c r="C1710" t="s">
-        <v>3392</v>
+        <v>3389</v>
       </c>
       <c r="D1710">
         <v>8.8305980172758694E+17</v>
@@ -42654,10 +42646,10 @@
         <v>1709</v>
       </c>
       <c r="B1711" t="s">
-        <v>3393</v>
+        <v>3390</v>
       </c>
       <c r="C1711" t="s">
-        <v>3394</v>
+        <v>3391</v>
       </c>
       <c r="D1711">
         <v>8.7523173525692006E+17</v>
@@ -42671,10 +42663,10 @@
         <v>1710</v>
       </c>
       <c r="B1712" t="s">
-        <v>3395</v>
+        <v>3392</v>
       </c>
       <c r="C1712" t="s">
-        <v>3396</v>
+        <v>3393</v>
       </c>
       <c r="D1712">
         <v>8.6222763958231706E+17</v>
@@ -42688,10 +42680,10 @@
         <v>1711</v>
       </c>
       <c r="B1713" t="s">
-        <v>3397</v>
+        <v>3394</v>
       </c>
       <c r="C1713" t="s">
-        <v>3398</v>
+        <v>3395</v>
       </c>
       <c r="D1713">
         <v>8.5911236022891725E+17</v>
@@ -42705,10 +42697,10 @@
         <v>1712</v>
       </c>
       <c r="B1714" t="s">
-        <v>3399</v>
+        <v>3396</v>
       </c>
       <c r="C1714" t="s">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="D1714">
         <v>8.2677028728099597E+17</v>
@@ -42722,10 +42714,10 @@
         <v>1713</v>
       </c>
       <c r="B1715" t="s">
-        <v>3401</v>
+        <v>3398</v>
       </c>
       <c r="C1715" t="s">
-        <v>3402</v>
+        <v>3399</v>
       </c>
       <c r="D1715">
         <v>8.3772106205221606E+17</v>
@@ -42739,10 +42731,10 @@
         <v>1712</v>
       </c>
       <c r="B1716" t="s">
-        <v>3403</v>
+        <v>3400</v>
       </c>
       <c r="C1716" t="s">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="D1716">
         <v>8.3302053837072E+17</v>
@@ -42756,10 +42748,10 @@
         <v>1715</v>
       </c>
       <c r="B1717" t="s">
-        <v>3405</v>
+        <v>3402</v>
       </c>
       <c r="C1717" t="s">
-        <v>3406</v>
+        <v>3403</v>
       </c>
       <c r="D1717">
         <v>8.2905681197212198E+17</v>
@@ -42773,10 +42765,10 @@
         <v>1716</v>
       </c>
       <c r="B1718" t="s">
-        <v>3407</v>
+        <v>3404</v>
       </c>
       <c r="C1718" t="s">
-        <v>3408</v>
+        <v>3405</v>
       </c>
       <c r="D1718">
         <v>8.2668398251961139E+17</v>
@@ -42790,10 +42782,10 @@
         <v>1717</v>
       </c>
       <c r="B1719" t="s">
-        <v>3409</v>
+        <v>3406</v>
       </c>
       <c r="C1719" t="s">
-        <v>3410</v>
+        <v>3407</v>
       </c>
       <c r="D1719">
         <v>8.2000117892362701E+17</v>
@@ -42807,10 +42799,10 @@
         <v>1718</v>
       </c>
       <c r="B1720" t="s">
-        <v>3411</v>
+        <v>3408</v>
       </c>
       <c r="C1720" t="s">
-        <v>3412</v>
+        <v>3409</v>
       </c>
       <c r="D1720">
         <v>8.1777202269738906E+17</v>
@@ -42824,10 +42816,10 @@
         <v>1719</v>
       </c>
       <c r="B1721" t="s">
-        <v>3413</v>
+        <v>3410</v>
       </c>
       <c r="C1721" t="s">
-        <v>3414</v>
+        <v>3411</v>
       </c>
       <c r="D1721">
         <v>7.9199171771728282E+17</v>
@@ -42841,10 +42833,10 @@
         <v>1720</v>
       </c>
       <c r="B1722" t="s">
-        <v>3415</v>
+        <v>3412</v>
       </c>
       <c r="C1722" t="s">
-        <v>3416</v>
+        <v>3413</v>
       </c>
       <c r="D1722">
         <v>7.0912950287020902E+17</v>
@@ -42858,10 +42850,10 @@
         <v>1721</v>
       </c>
       <c r="B1723" t="s">
-        <v>3417</v>
+        <v>3414</v>
       </c>
       <c r="C1723" t="s">
-        <v>3418</v>
+        <v>3415</v>
       </c>
       <c r="D1723">
         <v>2322165327</v>
@@ -42875,10 +42867,10 @@
         <v>1722</v>
       </c>
       <c r="B1724" t="s">
-        <v>3419</v>
+        <v>3416</v>
       </c>
       <c r="C1724" t="s">
-        <v>3420</v>
+        <v>3417</v>
       </c>
       <c r="D1724">
         <v>1601699622</v>
@@ -42892,10 +42884,10 @@
         <v>1723</v>
       </c>
       <c r="B1725" t="s">
-        <v>3421</v>
+        <v>3418</v>
       </c>
       <c r="C1725" t="s">
-        <v>3422</v>
+        <v>3419</v>
       </c>
       <c r="D1725">
         <v>730312292</v>
@@ -42909,10 +42901,10 @@
         <v>1722</v>
       </c>
       <c r="B1726" t="s">
-        <v>3423</v>
+        <v>3420</v>
       </c>
       <c r="C1726" t="s">
-        <v>3424</v>
+        <v>3421</v>
       </c>
       <c r="D1726">
         <v>270235072</v>
@@ -42926,10 +42918,10 @@
         <v>1725</v>
       </c>
       <c r="B1727" t="s">
-        <v>3425</v>
+        <v>3422</v>
       </c>
       <c r="C1727" t="s">
-        <v>3426</v>
+        <v>3423</v>
       </c>
       <c r="D1727">
         <v>152339060</v>
@@ -42943,10 +42935,10 @@
         <v>1726</v>
       </c>
       <c r="B1728" t="s">
-        <v>3427</v>
+        <v>3424</v>
       </c>
       <c r="C1728" t="s">
-        <v>3428</v>
+        <v>3425</v>
       </c>
       <c r="D1728">
         <v>56806603</v>
@@ -42960,10 +42952,10 @@
         <v>1727</v>
       </c>
       <c r="B1729" t="s">
-        <v>3429</v>
+        <v>3426</v>
       </c>
       <c r="C1729" t="s">
-        <v>3430</v>
+        <v>3427</v>
       </c>
       <c r="D1729">
         <v>16697297</v>
@@ -42977,10 +42969,10 @@
         <v>1728</v>
       </c>
       <c r="B1730" t="s">
-        <v>3431</v>
+        <v>3428</v>
       </c>
       <c r="C1730" t="s">
-        <v>3432</v>
+        <v>3429</v>
       </c>
       <c r="D1730">
         <v>16695267</v>
@@ -42994,10 +42986,10 @@
         <v>1729</v>
       </c>
       <c r="B1731" t="s">
-        <v>3433</v>
+        <v>3430</v>
       </c>
       <c r="C1731" t="s">
-        <v>3434</v>
+        <v>3431</v>
       </c>
       <c r="D1731">
         <v>9.3201632756778995E+17</v>
@@ -43011,10 +43003,10 @@
         <v>1730</v>
       </c>
       <c r="B1732" t="s">
-        <v>3435</v>
+        <v>3432</v>
       </c>
       <c r="C1732" t="s">
-        <v>3436</v>
+        <v>3433</v>
       </c>
       <c r="D1732">
         <v>2286683223</v>
@@ -43028,10 +43020,10 @@
         <v>1731</v>
       </c>
       <c r="B1733" t="s">
-        <v>3437</v>
+        <v>3434</v>
       </c>
       <c r="C1733" t="s">
-        <v>3438</v>
+        <v>3435</v>
       </c>
       <c r="D1733">
         <v>1.37197393622301E+18</v>
@@ -43045,10 +43037,10 @@
         <v>1732</v>
       </c>
       <c r="B1734" t="s">
-        <v>3439</v>
+        <v>3436</v>
       </c>
       <c r="C1734" t="s">
-        <v>3440</v>
+        <v>3437</v>
       </c>
       <c r="D1734">
         <v>1.32133263592253E+18</v>
@@ -43062,10 +43054,10 @@
         <v>1733</v>
       </c>
       <c r="B1735" t="s">
-        <v>3441</v>
+        <v>3438</v>
       </c>
       <c r="C1735" t="s">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="D1735">
         <v>1.3298006808250501E+18</v>
@@ -43079,10 +43071,10 @@
         <v>1732</v>
       </c>
       <c r="B1736" t="s">
-        <v>3443</v>
+        <v>3440</v>
       </c>
       <c r="C1736" t="s">
-        <v>3444</v>
+        <v>3441</v>
       </c>
       <c r="D1736">
         <v>1.2812205005769687E+18</v>
@@ -43096,10 +43088,10 @@
         <v>1735</v>
       </c>
       <c r="B1737" t="s">
-        <v>3445</v>
+        <v>3442</v>
       </c>
       <c r="C1737" t="s">
-        <v>3446</v>
+        <v>3443</v>
       </c>
       <c r="D1737">
         <v>1.1032260021913201E+18</v>
@@ -43113,10 +43105,10 @@
         <v>1736</v>
       </c>
       <c r="B1738" t="s">
-        <v>3447</v>
+        <v>3444</v>
       </c>
       <c r="C1738" t="s">
-        <v>3448</v>
+        <v>3445</v>
       </c>
       <c r="D1738">
         <v>1.0970211962201201E+18</v>
@@ -43130,10 +43122,10 @@
         <v>1737</v>
       </c>
       <c r="B1739" t="s">
-        <v>3449</v>
+        <v>3446</v>
       </c>
       <c r="C1739" t="s">
-        <v>3450</v>
+        <v>3447</v>
       </c>
       <c r="D1739">
         <v>1.0520213252770801E+18</v>
@@ -43147,10 +43139,10 @@
         <v>1738</v>
       </c>
       <c r="B1740" t="s">
-        <v>3451</v>
+        <v>3448</v>
       </c>
       <c r="C1740" t="s">
-        <v>3452</v>
+        <v>3449</v>
       </c>
       <c r="D1740">
         <v>1095928837</v>
@@ -43164,10 +43156,10 @@
         <v>1739</v>
       </c>
       <c r="B1741" t="s">
-        <v>3453</v>
+        <v>3450</v>
       </c>
       <c r="C1741" t="s">
-        <v>4118</v>
+        <v>4114</v>
       </c>
       <c r="D1741">
         <v>298708502</v>
@@ -43181,10 +43173,10 @@
         <v>1720</v>
       </c>
       <c r="B1742" t="s">
-        <v>3454</v>
+        <v>3451</v>
       </c>
       <c r="C1742" t="s">
-        <v>3455</v>
+        <v>3452</v>
       </c>
       <c r="D1742">
         <v>29792317</v>
@@ -43198,10 +43190,10 @@
         <v>1721</v>
       </c>
       <c r="B1743" t="s">
-        <v>3456</v>
+        <v>3453</v>
       </c>
       <c r="C1743" t="s">
-        <v>3457</v>
+        <v>3454</v>
       </c>
       <c r="D1743">
         <v>1533763217</v>
@@ -43215,10 +43207,10 @@
         <v>1722</v>
       </c>
       <c r="B1744" t="s">
-        <v>3458</v>
+        <v>3455</v>
       </c>
       <c r="C1744" t="s">
-        <v>3459</v>
+        <v>3456</v>
       </c>
       <c r="D1744">
         <v>1.3226605018010199E+18</v>
@@ -43232,10 +43224,10 @@
         <v>1723</v>
       </c>
       <c r="B1745" t="s">
-        <v>3460</v>
+        <v>3457</v>
       </c>
       <c r="C1745" t="s">
-        <v>3461</v>
+        <v>3458</v>
       </c>
       <c r="D1745">
         <v>7.2216826091938202E+17</v>
@@ -43249,10 +43241,10 @@
         <v>1722</v>
       </c>
       <c r="B1746" t="s">
-        <v>3462</v>
+        <v>3459</v>
       </c>
       <c r="C1746" t="s">
-        <v>3463</v>
+        <v>3460</v>
       </c>
       <c r="D1746">
         <v>2252060902</v>
@@ -43266,10 +43258,10 @@
         <v>1725</v>
       </c>
       <c r="B1747" t="s">
-        <v>3464</v>
+        <v>3461</v>
       </c>
       <c r="C1747" t="s">
-        <v>3465</v>
+        <v>3462</v>
       </c>
       <c r="D1747">
         <v>1.3979307277071319E+18</v>
@@ -43283,10 +43275,10 @@
         <v>1726</v>
       </c>
       <c r="B1748" t="s">
-        <v>3466</v>
+        <v>3463</v>
       </c>
       <c r="C1748" t="s">
-        <v>4119</v>
+        <v>4115</v>
       </c>
       <c r="D1748">
         <v>1.3299726517918799E+18</v>
@@ -43300,10 +43292,10 @@
         <v>1727</v>
       </c>
       <c r="B1749" t="s">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="C1749" t="s">
-        <v>3468</v>
+        <v>3465</v>
       </c>
       <c r="D1749">
         <v>1.3219762318621599E+18</v>
@@ -43317,10 +43309,10 @@
         <v>1728</v>
       </c>
       <c r="B1750" t="s">
-        <v>3469</v>
+        <v>3466</v>
       </c>
       <c r="C1750" t="s">
-        <v>3470</v>
+        <v>3467</v>
       </c>
       <c r="D1750">
         <v>1.3393269697799905E+18</v>
@@ -43334,10 +43326,10 @@
         <v>1729</v>
       </c>
       <c r="B1751" t="s">
-        <v>3471</v>
+        <v>3468</v>
       </c>
       <c r="C1751" t="s">
-        <v>3472</v>
+        <v>3469</v>
       </c>
       <c r="D1751">
         <v>1.2023971921718999E+18</v>
@@ -43351,10 +43343,10 @@
         <v>1750</v>
       </c>
       <c r="B1752" t="s">
-        <v>3473</v>
+        <v>3470</v>
       </c>
       <c r="C1752" t="s">
-        <v>3474</v>
+        <v>3471</v>
       </c>
       <c r="D1752">
         <v>1.2022637298223501E+18</v>
@@ -43368,10 +43360,10 @@
         <v>1751</v>
       </c>
       <c r="B1753" t="s">
-        <v>3475</v>
+        <v>3472</v>
       </c>
       <c r="C1753" t="s">
-        <v>3476</v>
+        <v>3473</v>
       </c>
       <c r="D1753">
         <v>1.13513287992922E+18</v>
@@ -43385,10 +43377,10 @@
         <v>1752</v>
       </c>
       <c r="B1754" t="s">
-        <v>3477</v>
+        <v>3474</v>
       </c>
       <c r="C1754" t="s">
-        <v>3478</v>
+        <v>3475</v>
       </c>
       <c r="D1754">
         <v>1.0917082535689462E+18</v>
@@ -43402,10 +43394,10 @@
         <v>1753</v>
       </c>
       <c r="B1755" t="s">
-        <v>3479</v>
+        <v>3476</v>
       </c>
       <c r="C1755" t="s">
-        <v>3480</v>
+        <v>3477</v>
       </c>
       <c r="D1755">
         <v>1.0855306970272031E+18</v>
@@ -43419,10 +43411,10 @@
         <v>1752</v>
       </c>
       <c r="B1756" t="s">
-        <v>3481</v>
+        <v>3478</v>
       </c>
       <c r="C1756" t="s">
-        <v>3482</v>
+        <v>3479</v>
       </c>
       <c r="D1756">
         <v>9.1257380686525299E+17</v>
@@ -43436,10 +43428,10 @@
         <v>1755</v>
       </c>
       <c r="B1757" t="s">
-        <v>3483</v>
+        <v>3480</v>
       </c>
       <c r="C1757" t="s">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="D1757">
         <v>2867089201</v>
@@ -43453,10 +43445,10 @@
         <v>1756</v>
       </c>
       <c r="B1758" t="s">
-        <v>3485</v>
+        <v>3482</v>
       </c>
       <c r="C1758" t="s">
-        <v>3486</v>
+        <v>3483</v>
       </c>
       <c r="D1758">
         <v>2652022717</v>
@@ -43470,10 +43462,10 @@
         <v>1757</v>
       </c>
       <c r="B1759" t="s">
-        <v>3487</v>
+        <v>3484</v>
       </c>
       <c r="C1759" t="s">
-        <v>3488</v>
+        <v>3485</v>
       </c>
       <c r="D1759">
         <v>1.3720577368503199E+18</v>
@@ -43487,10 +43479,10 @@
         <v>1758</v>
       </c>
       <c r="B1760" t="s">
-        <v>3489</v>
+        <v>3486</v>
       </c>
       <c r="C1760" t="s">
-        <v>3490</v>
+        <v>3487</v>
       </c>
       <c r="D1760">
         <v>52507279</v>
@@ -43504,10 +43496,10 @@
         <v>1759</v>
       </c>
       <c r="B1761" t="s">
-        <v>3491</v>
+        <v>3488</v>
       </c>
       <c r="C1761" t="s">
-        <v>3492</v>
+        <v>3489</v>
       </c>
       <c r="D1761">
         <v>1128863881</v>
@@ -43521,10 +43513,10 @@
         <v>1760</v>
       </c>
       <c r="B1762" t="s">
-        <v>3493</v>
+        <v>3490</v>
       </c>
       <c r="C1762" t="s">
-        <v>3494</v>
+        <v>3491</v>
       </c>
       <c r="D1762">
         <v>1.21229132328113E+18</v>
@@ -43538,10 +43530,10 @@
         <v>1761</v>
       </c>
       <c r="B1763" t="s">
-        <v>3495</v>
+        <v>3492</v>
       </c>
       <c r="C1763" t="s">
-        <v>3496</v>
+        <v>3493</v>
       </c>
       <c r="D1763">
         <v>1.32067269809139E+18</v>
@@ -43555,10 +43547,10 @@
         <v>1762</v>
       </c>
       <c r="B1764" t="s">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="C1764" t="s">
-        <v>3498</v>
+        <v>3495</v>
       </c>
       <c r="D1764">
         <v>1.3012893288153201E+18</v>
@@ -43572,10 +43564,10 @@
         <v>1763</v>
       </c>
       <c r="B1765" t="s">
-        <v>3499</v>
+        <v>3496</v>
       </c>
       <c r="C1765" t="s">
-        <v>3500</v>
+        <v>3497</v>
       </c>
       <c r="D1765">
         <v>1.2293225707712901E+18</v>
@@ -43589,10 +43581,10 @@
         <v>1762</v>
       </c>
       <c r="B1766" t="s">
-        <v>3501</v>
+        <v>3498</v>
       </c>
       <c r="C1766" t="s">
-        <v>3502</v>
+        <v>3499</v>
       </c>
       <c r="D1766">
         <v>1.088391265098625E+18</v>
@@ -43606,10 +43598,10 @@
         <v>1765</v>
       </c>
       <c r="B1767" t="s">
-        <v>3503</v>
+        <v>3500</v>
       </c>
       <c r="C1767" t="s">
-        <v>3504</v>
+        <v>3501</v>
       </c>
       <c r="D1767">
         <v>1.06636353237277E+18</v>
@@ -43623,16 +43615,16 @@
         <v>1766</v>
       </c>
       <c r="B1768" t="s">
-        <v>3505</v>
+        <v>3502</v>
       </c>
       <c r="C1768" t="s">
-        <v>3506</v>
+        <v>3503</v>
       </c>
       <c r="D1768">
         <v>7.0321703296072E+17</v>
       </c>
       <c r="E1768" t="s">
-        <v>3507</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="1769" spans="1:5" x14ac:dyDescent="0.35">
@@ -43640,10 +43632,10 @@
         <v>1767</v>
       </c>
       <c r="B1769" t="s">
-        <v>3508</v>
+        <v>3505</v>
       </c>
       <c r="C1769" t="s">
-        <v>3509</v>
+        <v>3506</v>
       </c>
       <c r="D1769">
         <v>3179236237</v>
@@ -43657,10 +43649,10 @@
         <v>1768</v>
       </c>
       <c r="B1770" t="s">
-        <v>3510</v>
+        <v>3507</v>
       </c>
       <c r="C1770" t="s">
-        <v>3511</v>
+        <v>3508</v>
       </c>
       <c r="D1770">
         <v>532326296</v>
@@ -43674,10 +43666,10 @@
         <v>1769</v>
       </c>
       <c r="B1771" t="s">
-        <v>3512</v>
+        <v>3509</v>
       </c>
       <c r="C1771" t="s">
-        <v>3513</v>
+        <v>3510</v>
       </c>
       <c r="D1771">
         <v>135259072</v>
@@ -43691,10 +43683,10 @@
         <v>1770</v>
       </c>
       <c r="B1772" t="s">
-        <v>3514</v>
+        <v>3511</v>
       </c>
       <c r="C1772" t="s">
-        <v>3515</v>
+        <v>3512</v>
       </c>
       <c r="D1772">
         <v>25517620</v>
@@ -43708,10 +43700,10 @@
         <v>1771</v>
       </c>
       <c r="B1773" t="s">
-        <v>3516</v>
+        <v>3513</v>
       </c>
       <c r="C1773" t="s">
-        <v>3517</v>
+        <v>3514</v>
       </c>
       <c r="D1773">
         <v>2822730286</v>
@@ -43725,10 +43717,10 @@
         <v>1772</v>
       </c>
       <c r="B1774" t="s">
-        <v>3518</v>
+        <v>3515</v>
       </c>
       <c r="C1774" t="s">
-        <v>3519</v>
+        <v>3516</v>
       </c>
       <c r="D1774">
         <v>3105922272</v>
@@ -43742,10 +43734,10 @@
         <v>1773</v>
       </c>
       <c r="B1775" t="s">
-        <v>3520</v>
+        <v>3517</v>
       </c>
       <c r="C1775" t="s">
-        <v>3521</v>
+        <v>3518</v>
       </c>
       <c r="D1775">
         <v>3067713112</v>
@@ -43759,10 +43751,10 @@
         <v>1772</v>
       </c>
       <c r="B1776" t="s">
-        <v>3522</v>
+        <v>3519</v>
       </c>
       <c r="C1776" t="s">
-        <v>3523</v>
+        <v>3520</v>
       </c>
       <c r="D1776">
         <v>2373576763</v>
@@ -43776,10 +43768,10 @@
         <v>1775</v>
       </c>
       <c r="B1777" t="s">
-        <v>3524</v>
+        <v>3521</v>
       </c>
       <c r="C1777" t="s">
-        <v>3525</v>
+        <v>3522</v>
       </c>
       <c r="D1777">
         <v>2220637672</v>
@@ -43793,10 +43785,10 @@
         <v>1776</v>
       </c>
       <c r="B1778" t="s">
-        <v>3526</v>
+        <v>3523</v>
       </c>
       <c r="C1778" t="s">
-        <v>3527</v>
+        <v>3524</v>
       </c>
       <c r="D1778">
         <v>100758328</v>
@@ -43810,10 +43802,10 @@
         <v>1777</v>
       </c>
       <c r="B1779" t="s">
-        <v>3528</v>
+        <v>3525</v>
       </c>
       <c r="C1779" t="s">
-        <v>3529</v>
+        <v>3526</v>
       </c>
       <c r="D1779">
         <v>1.3210392091809096E+18</v>
@@ -43827,10 +43819,10 @@
         <v>1778</v>
       </c>
       <c r="B1780" t="s">
-        <v>3530</v>
+        <v>3527</v>
       </c>
       <c r="C1780" t="s">
-        <v>3531</v>
+        <v>3528</v>
       </c>
       <c r="D1780">
         <v>1.30550928167712E+18</v>
@@ -43844,10 +43836,10 @@
         <v>1779</v>
       </c>
       <c r="B1781" t="s">
-        <v>3532</v>
+        <v>3529</v>
       </c>
       <c r="C1781" t="s">
-        <v>3533</v>
+        <v>3530</v>
       </c>
       <c r="D1781">
         <v>1.27529917500688E+18</v>
@@ -43861,10 +43853,10 @@
         <v>1780</v>
       </c>
       <c r="B1782" t="s">
-        <v>3534</v>
+        <v>3531</v>
       </c>
       <c r="C1782" t="s">
-        <v>3535</v>
+        <v>3532</v>
       </c>
       <c r="D1782">
         <v>1.259766098792194E+18</v>
@@ -43878,10 +43870,10 @@
         <v>1781</v>
       </c>
       <c r="B1783" t="s">
-        <v>3536</v>
+        <v>3533</v>
       </c>
       <c r="C1783" t="s">
-        <v>3537</v>
+        <v>3534</v>
       </c>
       <c r="D1783">
         <v>1.2512686338729999E+18</v>
@@ -43895,10 +43887,10 @@
         <v>1782</v>
       </c>
       <c r="B1784" t="s">
-        <v>3538</v>
+        <v>3535</v>
       </c>
       <c r="C1784" t="s">
-        <v>3539</v>
+        <v>3536</v>
       </c>
       <c r="D1784">
         <v>1.2359226772002299E+18</v>
@@ -43912,10 +43904,10 @@
         <v>1783</v>
       </c>
       <c r="B1785" t="s">
-        <v>3540</v>
+        <v>3537</v>
       </c>
       <c r="C1785" t="s">
-        <v>3541</v>
+        <v>3538</v>
       </c>
       <c r="D1785">
         <v>1.2203932279932201E+18</v>
@@ -43929,10 +43921,10 @@
         <v>1782</v>
       </c>
       <c r="B1786" t="s">
-        <v>3542</v>
+        <v>3539</v>
       </c>
       <c r="C1786" t="s">
-        <v>3543</v>
+        <v>3540</v>
       </c>
       <c r="D1786">
         <v>1.2065288872635474E+18</v>
@@ -43946,10 +43938,10 @@
         <v>1785</v>
       </c>
       <c r="B1787" t="s">
-        <v>3544</v>
+        <v>3541</v>
       </c>
       <c r="C1787" t="s">
-        <v>3545</v>
+        <v>3542</v>
       </c>
       <c r="D1787">
         <v>1.1970957282138601E+18</v>
@@ -43963,10 +43955,10 @@
         <v>1786</v>
       </c>
       <c r="B1788" t="s">
-        <v>3546</v>
+        <v>3543</v>
       </c>
       <c r="C1788" t="s">
-        <v>3547</v>
+        <v>3544</v>
       </c>
       <c r="D1788">
         <v>266190025</v>
@@ -43980,10 +43972,10 @@
         <v>1787</v>
       </c>
       <c r="B1789" t="s">
-        <v>3548</v>
+        <v>3545</v>
       </c>
       <c r="C1789" t="s">
-        <v>3549</v>
+        <v>3546</v>
       </c>
       <c r="D1789">
         <v>38150227</v>
@@ -43997,10 +43989,10 @@
         <v>1788</v>
       </c>
       <c r="B1790" t="s">
-        <v>3550</v>
+        <v>3547</v>
       </c>
       <c r="C1790" t="s">
-        <v>3551</v>
+        <v>3548</v>
       </c>
       <c r="D1790">
         <v>620221720</v>
@@ -44014,10 +44006,10 @@
         <v>1789</v>
       </c>
       <c r="B1791" t="s">
-        <v>3552</v>
+        <v>3549</v>
       </c>
       <c r="C1791" t="s">
-        <v>3553</v>
+        <v>3550</v>
       </c>
       <c r="D1791">
         <v>1.26926238751298E+18</v>
@@ -44031,10 +44023,10 @@
         <v>1790</v>
       </c>
       <c r="B1792" t="s">
-        <v>3554</v>
+        <v>3551</v>
       </c>
       <c r="C1792" t="s">
-        <v>3555</v>
+        <v>3552</v>
       </c>
       <c r="D1792">
         <v>106136813</v>
@@ -44048,10 +44040,10 @@
         <v>1791</v>
       </c>
       <c r="B1793" t="s">
-        <v>3556</v>
+        <v>3553</v>
       </c>
       <c r="C1793" t="s">
-        <v>3557</v>
+        <v>3554</v>
       </c>
       <c r="D1793">
         <v>15923222</v>
@@ -44065,10 +44057,10 @@
         <v>1792</v>
       </c>
       <c r="B1794" t="s">
-        <v>3558</v>
+        <v>3555</v>
       </c>
       <c r="C1794" t="s">
-        <v>3559</v>
+        <v>3556</v>
       </c>
       <c r="D1794">
         <v>19108766</v>
@@ -44082,10 +44074,10 @@
         <v>1793</v>
       </c>
       <c r="B1795" t="s">
-        <v>3560</v>
+        <v>3557</v>
       </c>
       <c r="C1795" t="s">
-        <v>3561</v>
+        <v>3558</v>
       </c>
       <c r="D1795">
         <v>3292982985</v>
@@ -44099,10 +44091,10 @@
         <v>1792</v>
       </c>
       <c r="B1796" t="s">
-        <v>3562</v>
+        <v>3559</v>
       </c>
       <c r="C1796" t="s">
-        <v>3563</v>
+        <v>3560</v>
       </c>
       <c r="D1796">
         <v>20593301</v>
@@ -44116,10 +44108,10 @@
         <v>1795</v>
       </c>
       <c r="B1797" t="s">
-        <v>3564</v>
+        <v>3561</v>
       </c>
       <c r="C1797" t="s">
-        <v>3565</v>
+        <v>3562</v>
       </c>
       <c r="D1797">
         <v>17229513</v>
@@ -44133,10 +44125,10 @@
         <v>1796</v>
       </c>
       <c r="B1798" t="s">
-        <v>3566</v>
+        <v>3563</v>
       </c>
       <c r="C1798" t="s">
-        <v>3567</v>
+        <v>3564</v>
       </c>
       <c r="D1798">
         <v>38228691</v>
@@ -44150,10 +44142,10 @@
         <v>1797</v>
       </c>
       <c r="B1799" t="s">
-        <v>3568</v>
+        <v>3565</v>
       </c>
       <c r="C1799" t="s">
-        <v>3569</v>
+        <v>3566</v>
       </c>
       <c r="D1799">
         <v>7.57979230222368E+17</v>
@@ -44167,10 +44159,10 @@
         <v>1798</v>
       </c>
       <c r="B1800" t="s">
-        <v>3570</v>
+        <v>3567</v>
       </c>
       <c r="C1800" t="s">
-        <v>3571</v>
+        <v>3568</v>
       </c>
       <c r="D1800">
         <v>25059129</v>
@@ -44184,10 +44176,10 @@
         <v>1799</v>
       </c>
       <c r="B1801" t="s">
-        <v>3572</v>
+        <v>3569</v>
       </c>
       <c r="C1801" t="s">
-        <v>3573</v>
+        <v>3570</v>
       </c>
       <c r="D1801">
         <v>8.7725089272796006E+17</v>
@@ -44201,10 +44193,10 @@
         <v>1800</v>
       </c>
       <c r="B1802" t="s">
-        <v>3574</v>
+        <v>3571</v>
       </c>
       <c r="C1802" t="s">
-        <v>3575</v>
+        <v>3572</v>
       </c>
       <c r="D1802">
         <v>3322218285</v>
@@ -44218,10 +44210,10 @@
         <v>1801</v>
       </c>
       <c r="B1803" t="s">
-        <v>3576</v>
+        <v>3573</v>
       </c>
       <c r="C1803" t="s">
-        <v>3577</v>
+        <v>3574</v>
       </c>
       <c r="D1803">
         <v>1.39058269521617E+18</v>
@@ -44235,10 +44227,10 @@
         <v>1802</v>
       </c>
       <c r="B1804" t="s">
-        <v>3578</v>
+        <v>3575</v>
       </c>
       <c r="C1804" t="s">
-        <v>3579</v>
+        <v>3576</v>
       </c>
       <c r="D1804">
         <v>1.29259989305566E+18</v>
@@ -44252,10 +44244,10 @@
         <v>1803</v>
       </c>
       <c r="B1805" t="s">
-        <v>3580</v>
+        <v>3577</v>
       </c>
       <c r="C1805" t="s">
-        <v>3581</v>
+        <v>3578</v>
       </c>
       <c r="D1805">
         <v>18629023</v>
@@ -44269,10 +44261,10 @@
         <v>1802</v>
       </c>
       <c r="B1806" t="s">
-        <v>3582</v>
+        <v>3579</v>
       </c>
       <c r="C1806" t="s">
-        <v>3583</v>
+        <v>3580</v>
       </c>
       <c r="D1806">
         <v>9.0272535005289306E+17</v>
@@ -44286,10 +44278,10 @@
         <v>1805</v>
       </c>
       <c r="B1807" t="s">
-        <v>3584</v>
+        <v>3581</v>
       </c>
       <c r="C1807" t="s">
-        <v>3585</v>
+        <v>3582</v>
       </c>
       <c r="D1807">
         <v>23096952</v>
@@ -44303,10 +44295,10 @@
         <v>1806</v>
       </c>
       <c r="B1808" t="s">
-        <v>3586</v>
+        <v>3583</v>
       </c>
       <c r="C1808" t="s">
-        <v>3587</v>
+        <v>3584</v>
       </c>
       <c r="D1808">
         <v>22521257</v>
@@ -44320,10 +44312,10 @@
         <v>1807</v>
       </c>
       <c r="B1809" t="s">
-        <v>3588</v>
+        <v>3585</v>
       </c>
       <c r="C1809" t="s">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="D1809">
         <v>110680290</v>
@@ -44337,10 +44329,10 @@
         <v>1808</v>
       </c>
       <c r="B1810" t="s">
-        <v>3590</v>
+        <v>3587</v>
       </c>
       <c r="C1810" t="s">
-        <v>3591</v>
+        <v>3588</v>
       </c>
       <c r="D1810">
         <v>21228191</v>
@@ -44354,10 +44346,10 @@
         <v>1809</v>
       </c>
       <c r="B1811" t="s">
-        <v>3592</v>
+        <v>3589</v>
       </c>
       <c r="C1811" t="s">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="D1811">
         <v>151258332</v>
@@ -44371,10 +44363,10 @@
         <v>1810</v>
       </c>
       <c r="B1812" t="s">
-        <v>3594</v>
+        <v>3591</v>
       </c>
       <c r="C1812" t="s">
-        <v>3595</v>
+        <v>3592</v>
       </c>
       <c r="D1812">
         <v>137322518</v>
@@ -44388,10 +44380,10 @@
         <v>1811</v>
       </c>
       <c r="B1813" t="s">
-        <v>3596</v>
+        <v>3593</v>
       </c>
       <c r="C1813" t="s">
-        <v>3597</v>
+        <v>3594</v>
       </c>
       <c r="D1813">
         <v>18632035</v>
@@ -44405,10 +44397,10 @@
         <v>1812</v>
       </c>
       <c r="B1814" t="s">
-        <v>3598</v>
+        <v>3595</v>
       </c>
       <c r="C1814" t="s">
-        <v>3599</v>
+        <v>3596</v>
       </c>
       <c r="D1814">
         <v>23252769</v>
@@ -44422,10 +44414,10 @@
         <v>1813</v>
       </c>
       <c r="B1815" t="s">
-        <v>3600</v>
+        <v>3597</v>
       </c>
       <c r="C1815" t="s">
-        <v>3601</v>
+        <v>3598</v>
       </c>
       <c r="D1815">
         <v>96122129</v>
@@ -44439,10 +44431,10 @@
         <v>1812</v>
       </c>
       <c r="B1816" t="s">
-        <v>3602</v>
+        <v>3599</v>
       </c>
       <c r="C1816" t="s">
-        <v>3603</v>
+        <v>3600</v>
       </c>
       <c r="D1816">
         <v>2792716895</v>
@@ -44456,10 +44448,10 @@
         <v>1815</v>
       </c>
       <c r="B1817" t="s">
-        <v>3604</v>
+        <v>3601</v>
       </c>
       <c r="C1817" t="s">
-        <v>3605</v>
+        <v>3602</v>
       </c>
       <c r="D1817">
         <v>212826252</v>
@@ -44473,16 +44465,16 @@
         <v>1816</v>
       </c>
       <c r="B1818" t="s">
-        <v>3606</v>
+        <v>3603</v>
       </c>
       <c r="C1818" t="s">
-        <v>3607</v>
+        <v>3604</v>
       </c>
       <c r="D1818">
         <v>9.2022092809268595E+17</v>
       </c>
       <c r="E1818" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1819" spans="1:5" x14ac:dyDescent="0.35">
@@ -44490,16 +44482,16 @@
         <v>1817</v>
       </c>
       <c r="B1819" t="s">
-        <v>3609</v>
+        <v>3606</v>
       </c>
       <c r="C1819" t="s">
-        <v>3610</v>
+        <v>3607</v>
       </c>
       <c r="D1819">
         <v>3062320222</v>
       </c>
       <c r="E1819" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1820" spans="1:5" x14ac:dyDescent="0.35">
@@ -44507,16 +44499,16 @@
         <v>1818</v>
       </c>
       <c r="B1820" t="s">
-        <v>3611</v>
+        <v>3608</v>
       </c>
       <c r="C1820" t="s">
-        <v>3612</v>
+        <v>3609</v>
       </c>
       <c r="D1820">
         <v>221060692</v>
       </c>
       <c r="E1820" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1821" spans="1:5" x14ac:dyDescent="0.35">
@@ -44524,16 +44516,16 @@
         <v>1819</v>
       </c>
       <c r="B1821" t="s">
-        <v>3613</v>
+        <v>3610</v>
       </c>
       <c r="C1821" t="s">
-        <v>3614</v>
+        <v>3611</v>
       </c>
       <c r="D1821">
         <v>8.7200038179208294E+17</v>
       </c>
       <c r="E1821" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1822" spans="1:5" x14ac:dyDescent="0.35">
@@ -44541,33 +44533,33 @@
         <v>1820</v>
       </c>
       <c r="B1822" t="s">
-        <v>3615</v>
+        <v>3612</v>
       </c>
       <c r="C1822" t="s">
-        <v>4120</v>
+        <v>4116</v>
       </c>
       <c r="D1822">
         <v>1212310728</v>
       </c>
       <c r="E1822" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="1823" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1823">
         <v>1821</v>
       </c>
       <c r="B1823" t="s">
-        <v>3616</v>
+        <v>3613</v>
       </c>
       <c r="C1823" s="1" t="s">
-        <v>4121</v>
+        <v>4117</v>
       </c>
       <c r="D1823">
         <v>1.20186011808223E+18</v>
       </c>
       <c r="E1823" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1824" spans="1:5" x14ac:dyDescent="0.35">
@@ -44575,16 +44567,16 @@
         <v>1822</v>
       </c>
       <c r="B1824" t="s">
-        <v>3617</v>
+        <v>3614</v>
       </c>
       <c r="C1824" t="s">
-        <v>3618</v>
+        <v>3615</v>
       </c>
       <c r="D1824">
         <v>1.2399331321327201E+18</v>
       </c>
       <c r="E1824" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1825" spans="1:5" x14ac:dyDescent="0.35">
@@ -44592,16 +44584,16 @@
         <v>1823</v>
       </c>
       <c r="B1825" t="s">
-        <v>3619</v>
+        <v>3616</v>
       </c>
       <c r="C1825" t="s">
-        <v>3620</v>
+        <v>3617</v>
       </c>
       <c r="D1825">
         <v>27258202</v>
       </c>
       <c r="E1825" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1826" spans="1:5" x14ac:dyDescent="0.35">
@@ -44609,10 +44601,10 @@
         <v>1822</v>
       </c>
       <c r="B1826" t="s">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="C1826" t="s">
-        <v>3622</v>
+        <v>3619</v>
       </c>
       <c r="D1826">
         <v>1.2206727709212101E+18</v>
@@ -44626,10 +44618,10 @@
         <v>1825</v>
       </c>
       <c r="B1827" t="s">
-        <v>3623</v>
+        <v>3620</v>
       </c>
       <c r="C1827" t="s">
-        <v>3624</v>
+        <v>3621</v>
       </c>
       <c r="D1827">
         <v>286626781</v>
@@ -44643,10 +44635,10 @@
         <v>1826</v>
       </c>
       <c r="B1828" t="s">
-        <v>3625</v>
+        <v>3622</v>
       </c>
       <c r="C1828" t="s">
-        <v>3626</v>
+        <v>3623</v>
       </c>
       <c r="D1828">
         <v>28736123</v>
@@ -44660,10 +44652,10 @@
         <v>1827</v>
       </c>
       <c r="B1829" t="s">
-        <v>3627</v>
+        <v>3624</v>
       </c>
       <c r="C1829" t="s">
-        <v>3628</v>
+        <v>3625</v>
       </c>
       <c r="D1829">
         <v>15980032</v>
@@ -44677,10 +44669,10 @@
         <v>1828</v>
       </c>
       <c r="B1830" t="s">
-        <v>3629</v>
+        <v>3626</v>
       </c>
       <c r="C1830" t="s">
-        <v>3630</v>
+        <v>3627</v>
       </c>
       <c r="D1830">
         <v>97189652</v>
@@ -44694,10 +44686,10 @@
         <v>1829</v>
       </c>
       <c r="B1831" t="s">
-        <v>3631</v>
+        <v>3628</v>
       </c>
       <c r="C1831" t="s">
-        <v>3632</v>
+        <v>3629</v>
       </c>
       <c r="D1831">
         <v>1375039512</v>
@@ -44711,10 +44703,10 @@
         <v>1830</v>
       </c>
       <c r="B1832" t="s">
-        <v>3633</v>
+        <v>3630</v>
       </c>
       <c r="C1832" t="s">
-        <v>4122</v>
+        <v>4118</v>
       </c>
       <c r="D1832">
         <v>1.05237018822933E+18</v>
@@ -44728,10 +44720,10 @@
         <v>1831</v>
       </c>
       <c r="B1833" t="s">
-        <v>3634</v>
+        <v>3631</v>
       </c>
       <c r="C1833" t="s">
-        <v>3635</v>
+        <v>3632</v>
       </c>
       <c r="D1833">
         <v>39992751</v>
@@ -44745,10 +44737,10 @@
         <v>1832</v>
       </c>
       <c r="B1834" t="s">
-        <v>3636</v>
+        <v>3633</v>
       </c>
       <c r="C1834" t="s">
-        <v>3637</v>
+        <v>3634</v>
       </c>
       <c r="D1834">
         <v>112696822</v>
@@ -44762,10 +44754,10 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="s">
-        <v>3638</v>
+        <v>3635</v>
       </c>
       <c r="C1835" t="s">
-        <v>4123</v>
+        <v>4119</v>
       </c>
       <c r="D1835">
         <v>66317092</v>
@@ -44779,10 +44771,10 @@
         <v>1832</v>
       </c>
       <c r="B1836" t="s">
-        <v>3639</v>
+        <v>3636</v>
       </c>
       <c r="C1836" t="s">
-        <v>3640</v>
+        <v>3637</v>
       </c>
       <c r="D1836">
         <v>1.05210919870262E+18</v>
@@ -44796,16 +44788,16 @@
         <v>1835</v>
       </c>
       <c r="B1837" t="s">
-        <v>3641</v>
+        <v>3638</v>
       </c>
       <c r="C1837" t="s">
-        <v>3642</v>
+        <v>3639</v>
       </c>
       <c r="D1837">
         <v>1.0290132099556598E+18</v>
       </c>
       <c r="E1837" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1838" spans="1:5" x14ac:dyDescent="0.35">
@@ -44813,33 +44805,33 @@
         <v>1836</v>
       </c>
       <c r="B1838" t="s">
-        <v>3643</v>
+        <v>3640</v>
       </c>
       <c r="C1838" t="s">
-        <v>3644</v>
+        <v>3641</v>
       </c>
       <c r="D1838">
         <v>9.9850696225002304E+17</v>
       </c>
       <c r="E1838" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="1839" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A1839">
         <v>1837</v>
       </c>
       <c r="B1839" t="s">
-        <v>3645</v>
+        <v>3642</v>
       </c>
       <c r="C1839" s="1" t="s">
-        <v>4124</v>
+        <v>4120</v>
       </c>
       <c r="D1839">
         <v>1.03509852152525E+18</v>
       </c>
       <c r="E1839" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1840" spans="1:5" x14ac:dyDescent="0.35">
@@ -44847,16 +44839,16 @@
         <v>1838</v>
       </c>
       <c r="B1840" t="s">
-        <v>3646</v>
+        <v>3643</v>
       </c>
       <c r="C1840" t="s">
-        <v>3647</v>
+        <v>3644</v>
       </c>
       <c r="D1840">
         <v>2202530357</v>
       </c>
       <c r="E1840" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1841" spans="1:5" x14ac:dyDescent="0.35">
@@ -44864,16 +44856,16 @@
         <v>1839</v>
       </c>
       <c r="B1841" t="s">
-        <v>3648</v>
+        <v>3645</v>
       </c>
       <c r="C1841" t="s">
-        <v>3649</v>
+        <v>3646</v>
       </c>
       <c r="D1841">
         <v>1.1927722038609019E+18</v>
       </c>
       <c r="E1841" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1842" spans="1:5" x14ac:dyDescent="0.35">
@@ -44881,16 +44873,16 @@
         <v>1820</v>
       </c>
       <c r="B1842" t="s">
-        <v>3650</v>
+        <v>3647</v>
       </c>
       <c r="C1842" t="s">
-        <v>3651</v>
+        <v>3648</v>
       </c>
       <c r="D1842">
         <v>2972715026</v>
       </c>
       <c r="E1842" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1843" spans="1:5" x14ac:dyDescent="0.35">
@@ -44898,16 +44890,16 @@
         <v>1821</v>
       </c>
       <c r="B1843" t="s">
-        <v>3652</v>
+        <v>3649</v>
       </c>
       <c r="C1843" t="s">
-        <v>3653</v>
+        <v>3650</v>
       </c>
       <c r="D1843">
         <v>1.3185708606519091E+18</v>
       </c>
       <c r="E1843" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1844" spans="1:5" x14ac:dyDescent="0.35">
@@ -44915,10 +44907,10 @@
         <v>1822</v>
       </c>
       <c r="B1844" t="s">
-        <v>3654</v>
+        <v>3651</v>
       </c>
       <c r="C1844" t="s">
-        <v>3655</v>
+        <v>3652</v>
       </c>
       <c r="D1844">
         <v>606125302</v>
@@ -44932,10 +44924,10 @@
         <v>1823</v>
       </c>
       <c r="B1845" t="s">
-        <v>3656</v>
+        <v>3653</v>
       </c>
       <c r="C1845" t="s">
-        <v>3657</v>
+        <v>3654</v>
       </c>
       <c r="D1845">
         <v>335887533</v>
@@ -44949,10 +44941,10 @@
         <v>1822</v>
       </c>
       <c r="B1846" t="s">
-        <v>3658</v>
+        <v>3655</v>
       </c>
       <c r="C1846" t="s">
-        <v>3659</v>
+        <v>3656</v>
       </c>
       <c r="D1846">
         <v>17819913</v>
@@ -44966,10 +44958,10 @@
         <v>1825</v>
       </c>
       <c r="B1847" t="s">
-        <v>3660</v>
+        <v>3657</v>
       </c>
       <c r="C1847" t="s">
-        <v>3661</v>
+        <v>3658</v>
       </c>
       <c r="D1847">
         <v>220017320</v>
@@ -44983,10 +44975,10 @@
         <v>1826</v>
       </c>
       <c r="B1848" t="s">
-        <v>3662</v>
+        <v>3659</v>
       </c>
       <c r="C1848" t="s">
-        <v>3663</v>
+        <v>3660</v>
       </c>
       <c r="D1848">
         <v>1367227681</v>
@@ -45000,10 +44992,10 @@
         <v>1827</v>
       </c>
       <c r="B1849" t="s">
-        <v>3664</v>
+        <v>3661</v>
       </c>
       <c r="C1849" t="s">
-        <v>3665</v>
+        <v>3662</v>
       </c>
       <c r="D1849">
         <v>8.0617709726590157E+17</v>
@@ -45017,10 +45009,10 @@
         <v>1828</v>
       </c>
       <c r="B1850" t="s">
-        <v>3666</v>
+        <v>3663</v>
       </c>
       <c r="C1850" t="s">
-        <v>3667</v>
+        <v>3664</v>
       </c>
       <c r="D1850">
         <v>20768582</v>
@@ -45034,10 +45026,10 @@
         <v>1829</v>
       </c>
       <c r="B1851" t="s">
-        <v>3668</v>
+        <v>3665</v>
       </c>
       <c r="C1851" t="s">
-        <v>3669</v>
+        <v>3666</v>
       </c>
       <c r="D1851">
         <v>52333983</v>
@@ -45051,10 +45043,10 @@
         <v>1850</v>
       </c>
       <c r="B1852" t="s">
-        <v>3670</v>
+        <v>3667</v>
       </c>
       <c r="C1852" t="s">
-        <v>3671</v>
+        <v>3668</v>
       </c>
       <c r="D1852">
         <v>932989621</v>
@@ -45068,10 +45060,10 @@
         <v>1851</v>
       </c>
       <c r="B1853" t="s">
-        <v>3672</v>
+        <v>3669</v>
       </c>
       <c r="C1853" t="s">
-        <v>3673</v>
+        <v>3670</v>
       </c>
       <c r="D1853">
         <v>25089229</v>
@@ -45085,10 +45077,10 @@
         <v>1852</v>
       </c>
       <c r="B1854" t="s">
-        <v>3674</v>
+        <v>3671</v>
       </c>
       <c r="C1854" t="s">
-        <v>3675</v>
+        <v>3672</v>
       </c>
       <c r="D1854">
         <v>51103685</v>
@@ -45102,10 +45094,10 @@
         <v>1853</v>
       </c>
       <c r="B1855" t="s">
-        <v>3676</v>
+        <v>3673</v>
       </c>
       <c r="C1855" t="s">
-        <v>3677</v>
+        <v>3674</v>
       </c>
       <c r="D1855">
         <v>267699862</v>
@@ -45119,10 +45111,10 @@
         <v>1852</v>
       </c>
       <c r="B1856" t="s">
-        <v>3678</v>
+        <v>3675</v>
       </c>
       <c r="C1856" t="s">
-        <v>3679</v>
+        <v>3676</v>
       </c>
       <c r="D1856">
         <v>2266353178</v>
@@ -45136,10 +45128,10 @@
         <v>1855</v>
       </c>
       <c r="B1857" t="s">
-        <v>3680</v>
+        <v>3677</v>
       </c>
       <c r="C1857" t="s">
-        <v>3681</v>
+        <v>3678</v>
       </c>
       <c r="D1857">
         <v>2732230173</v>
@@ -45153,10 +45145,10 @@
         <v>1856</v>
       </c>
       <c r="B1858" t="s">
-        <v>3682</v>
+        <v>3679</v>
       </c>
       <c r="C1858" t="s">
-        <v>3683</v>
+        <v>3680</v>
       </c>
       <c r="D1858">
         <v>1.32138280628291E+18</v>
@@ -45170,10 +45162,10 @@
         <v>1857</v>
       </c>
       <c r="B1859" t="s">
-        <v>3684</v>
+        <v>3681</v>
       </c>
       <c r="C1859" t="s">
-        <v>3685</v>
+        <v>3682</v>
       </c>
       <c r="D1859">
         <v>17922028</v>
@@ -45187,10 +45179,10 @@
         <v>1858</v>
       </c>
       <c r="B1860" t="s">
-        <v>3686</v>
+        <v>3683</v>
       </c>
       <c r="C1860" t="s">
-        <v>3687</v>
+        <v>3684</v>
       </c>
       <c r="D1860">
         <v>19075676</v>
@@ -45204,10 +45196,10 @@
         <v>1859</v>
       </c>
       <c r="B1861" t="s">
-        <v>3688</v>
+        <v>3685</v>
       </c>
       <c r="C1861" t="s">
-        <v>3689</v>
+        <v>3686</v>
       </c>
       <c r="D1861">
         <v>222081285</v>
@@ -45221,10 +45213,10 @@
         <v>1860</v>
       </c>
       <c r="B1862" t="s">
-        <v>3690</v>
+        <v>3687</v>
       </c>
       <c r="C1862" t="s">
-        <v>3691</v>
+        <v>3688</v>
       </c>
       <c r="D1862">
         <v>1.05221537328591E+18</v>
@@ -45238,10 +45230,10 @@
         <v>1861</v>
       </c>
       <c r="B1863" t="s">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="C1863" t="s">
-        <v>3693</v>
+        <v>3690</v>
       </c>
       <c r="D1863">
         <v>23125078</v>
@@ -45255,10 +45247,10 @@
         <v>1862</v>
       </c>
       <c r="B1864" t="s">
-        <v>3694</v>
+        <v>3691</v>
       </c>
       <c r="C1864" t="s">
-        <v>3695</v>
+        <v>3692</v>
       </c>
       <c r="D1864">
         <v>9.7572325680229094E+17</v>
@@ -45272,10 +45264,10 @@
         <v>1863</v>
       </c>
       <c r="B1865" t="s">
-        <v>3696</v>
+        <v>3693</v>
       </c>
       <c r="C1865" t="s">
-        <v>3697</v>
+        <v>3694</v>
       </c>
       <c r="D1865">
         <v>122782031</v>
@@ -45289,10 +45281,10 @@
         <v>1862</v>
       </c>
       <c r="B1866" t="s">
-        <v>3698</v>
+        <v>3695</v>
       </c>
       <c r="C1866" t="s">
-        <v>4125</v>
+        <v>4121</v>
       </c>
       <c r="D1866">
         <v>79226788</v>
@@ -45306,10 +45298,10 @@
         <v>1865</v>
       </c>
       <c r="B1867" t="s">
-        <v>3699</v>
+        <v>3696</v>
       </c>
       <c r="C1867" t="s">
-        <v>3700</v>
+        <v>3697</v>
       </c>
       <c r="D1867">
         <v>196330258</v>
@@ -45323,10 +45315,10 @@
         <v>1866</v>
       </c>
       <c r="B1868" t="s">
-        <v>3701</v>
+        <v>3698</v>
       </c>
       <c r="C1868" t="s">
-        <v>3702</v>
+        <v>3699</v>
       </c>
       <c r="D1868">
         <v>215995602</v>
@@ -45340,10 +45332,10 @@
         <v>1867</v>
       </c>
       <c r="B1869" t="s">
-        <v>3703</v>
+        <v>3700</v>
       </c>
       <c r="C1869" t="s">
-        <v>3704</v>
+        <v>3701</v>
       </c>
       <c r="D1869">
         <v>2356198197</v>
@@ -45357,10 +45349,10 @@
         <v>1868</v>
       </c>
       <c r="B1870" t="s">
-        <v>3705</v>
+        <v>3702</v>
       </c>
       <c r="C1870" t="s">
-        <v>3706</v>
+        <v>3703</v>
       </c>
       <c r="D1870">
         <v>7.1005619612586906E+17</v>
@@ -45374,10 +45366,10 @@
         <v>1869</v>
       </c>
       <c r="B1871" t="s">
-        <v>3707</v>
+        <v>3704</v>
       </c>
       <c r="C1871" t="s">
-        <v>3708</v>
+        <v>3705</v>
       </c>
       <c r="D1871">
         <v>210805639</v>
@@ -45391,10 +45383,10 @@
         <v>1870</v>
       </c>
       <c r="B1872" t="s">
-        <v>3709</v>
+        <v>3706</v>
       </c>
       <c r="C1872" t="s">
-        <v>3710</v>
+        <v>3707</v>
       </c>
       <c r="D1872">
         <v>63726205</v>
@@ -45408,10 +45400,10 @@
         <v>1871</v>
       </c>
       <c r="B1873" t="s">
-        <v>3711</v>
+        <v>3708</v>
       </c>
       <c r="C1873" t="s">
-        <v>3712</v>
+        <v>3709</v>
       </c>
       <c r="D1873">
         <v>7.7826211723112E+17</v>
@@ -45425,16 +45417,16 @@
         <v>1872</v>
       </c>
       <c r="B1874" t="s">
-        <v>3713</v>
+        <v>3710</v>
       </c>
       <c r="C1874" t="s">
-        <v>3714</v>
+        <v>3711</v>
       </c>
       <c r="D1874">
         <v>9.1911770072670618E+17</v>
       </c>
       <c r="E1874" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1875" spans="1:5" x14ac:dyDescent="0.35">
@@ -45442,16 +45434,16 @@
         <v>1873</v>
       </c>
       <c r="B1875" t="s">
-        <v>3715</v>
+        <v>3712</v>
       </c>
       <c r="C1875" t="s">
-        <v>3716</v>
+        <v>3713</v>
       </c>
       <c r="D1875">
         <v>3888232921</v>
       </c>
       <c r="E1875" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1876" spans="1:5" x14ac:dyDescent="0.35">
@@ -45459,16 +45451,16 @@
         <v>1872</v>
       </c>
       <c r="B1876" t="s">
-        <v>3717</v>
+        <v>3714</v>
       </c>
       <c r="C1876" t="s">
-        <v>3718</v>
+        <v>3715</v>
       </c>
       <c r="D1876">
         <v>1.22225029936958E+18</v>
       </c>
       <c r="E1876" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1877" spans="1:5" x14ac:dyDescent="0.35">
@@ -45476,16 +45468,16 @@
         <v>1875</v>
       </c>
       <c r="B1877" t="s">
-        <v>3719</v>
+        <v>3716</v>
       </c>
       <c r="C1877" t="s">
-        <v>3720</v>
+        <v>3717</v>
       </c>
       <c r="D1877">
         <v>8.0026610802960102E+17</v>
       </c>
       <c r="E1877" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1878" spans="1:5" x14ac:dyDescent="0.35">
@@ -45493,10 +45485,10 @@
         <v>1876</v>
       </c>
       <c r="B1878" t="s">
-        <v>3721</v>
+        <v>3718</v>
       </c>
       <c r="C1878" t="s">
-        <v>3722</v>
+        <v>3719</v>
       </c>
       <c r="D1878">
         <v>9.7965968328212698E+17</v>
@@ -45510,10 +45502,10 @@
         <v>1877</v>
       </c>
       <c r="B1879" t="s">
-        <v>3723</v>
+        <v>3720</v>
       </c>
       <c r="C1879" t="s">
-        <v>3724</v>
+        <v>3721</v>
       </c>
       <c r="D1879">
         <v>398673889</v>
@@ -45527,10 +45519,10 @@
         <v>1878</v>
       </c>
       <c r="B1880" t="s">
-        <v>3725</v>
+        <v>3722</v>
       </c>
       <c r="C1880" t="s">
-        <v>3726</v>
+        <v>3723</v>
       </c>
       <c r="D1880">
         <v>1285611955</v>
@@ -45544,10 +45536,10 @@
         <v>1879</v>
       </c>
       <c r="B1881" t="s">
-        <v>3727</v>
+        <v>3724</v>
       </c>
       <c r="C1881" t="s">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="D1881">
         <v>2870660013</v>
@@ -45561,10 +45553,10 @@
         <v>1880</v>
       </c>
       <c r="B1882" t="s">
-        <v>3729</v>
+        <v>3726</v>
       </c>
       <c r="C1882" t="s">
-        <v>3730</v>
+        <v>3727</v>
       </c>
       <c r="D1882">
         <v>2511381768</v>
@@ -45578,10 +45570,10 @@
         <v>1881</v>
       </c>
       <c r="B1883" t="s">
-        <v>3731</v>
+        <v>3728</v>
       </c>
       <c r="C1883" t="s">
-        <v>3732</v>
+        <v>3729</v>
       </c>
       <c r="D1883">
         <v>1567658617</v>
@@ -45595,10 +45587,10 @@
         <v>1882</v>
       </c>
       <c r="B1884" t="s">
-        <v>3733</v>
+        <v>3730</v>
       </c>
       <c r="C1884" t="s">
-        <v>3734</v>
+        <v>3731</v>
       </c>
       <c r="D1884">
         <v>22338622</v>
@@ -45612,10 +45604,10 @@
         <v>1883</v>
       </c>
       <c r="B1885" t="s">
-        <v>3735</v>
+        <v>3732</v>
       </c>
       <c r="C1885" t="s">
-        <v>3736</v>
+        <v>3733</v>
       </c>
       <c r="D1885">
         <v>1.1670018202721101E+18</v>
@@ -45629,10 +45621,10 @@
         <v>1882</v>
       </c>
       <c r="B1886" t="s">
-        <v>3737</v>
+        <v>3734</v>
       </c>
       <c r="C1886" t="s">
-        <v>3738</v>
+        <v>3735</v>
       </c>
       <c r="D1886">
         <v>16696799</v>
@@ -45646,10 +45638,10 @@
         <v>1885</v>
       </c>
       <c r="B1887" t="s">
-        <v>3739</v>
+        <v>3736</v>
       </c>
       <c r="C1887" t="s">
-        <v>3740</v>
+        <v>3737</v>
       </c>
       <c r="D1887">
         <v>232880103</v>
@@ -45663,10 +45655,10 @@
         <v>1886</v>
       </c>
       <c r="B1888" t="s">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="C1888" t="s">
-        <v>3742</v>
+        <v>3739</v>
       </c>
       <c r="D1888">
         <v>605361992</v>
@@ -45680,16 +45672,16 @@
         <v>1887</v>
       </c>
       <c r="B1889" t="s">
-        <v>3743</v>
+        <v>3740</v>
       </c>
       <c r="C1889" t="s">
-        <v>3744</v>
+        <v>3741</v>
       </c>
       <c r="D1889">
         <v>1.1822551126917199E+18</v>
       </c>
       <c r="E1889" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1890" spans="1:5" x14ac:dyDescent="0.35">
@@ -45697,16 +45689,16 @@
         <v>1888</v>
       </c>
       <c r="B1890" t="s">
-        <v>3745</v>
+        <v>3742</v>
       </c>
       <c r="C1890" t="s">
-        <v>3746</v>
+        <v>3743</v>
       </c>
       <c r="D1890">
         <v>9.5396756019782502E+17</v>
       </c>
       <c r="E1890" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1891" spans="1:5" x14ac:dyDescent="0.35">
@@ -45714,10 +45706,10 @@
         <v>1889</v>
       </c>
       <c r="B1891" t="s">
-        <v>3747</v>
+        <v>3744</v>
       </c>
       <c r="C1891" t="s">
-        <v>3748</v>
+        <v>3745</v>
       </c>
       <c r="D1891">
         <v>20232729</v>
@@ -45731,10 +45723,10 @@
         <v>1890</v>
       </c>
       <c r="B1892" t="s">
-        <v>3749</v>
+        <v>3746</v>
       </c>
       <c r="C1892" t="s">
-        <v>3750</v>
+        <v>3747</v>
       </c>
       <c r="D1892">
         <v>3692732136</v>
@@ -45748,10 +45740,10 @@
         <v>1891</v>
       </c>
       <c r="B1893" t="s">
-        <v>3751</v>
+        <v>3748</v>
       </c>
       <c r="C1893" t="s">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="D1893">
         <v>22155607</v>
@@ -45765,10 +45757,10 @@
         <v>1892</v>
       </c>
       <c r="B1894" t="s">
-        <v>3752</v>
+        <v>3749</v>
       </c>
       <c r="C1894" t="s">
-        <v>3753</v>
+        <v>3750</v>
       </c>
       <c r="D1894">
         <v>2987128263</v>
@@ -45782,10 +45774,10 @@
         <v>1893</v>
       </c>
       <c r="B1895" t="s">
-        <v>3754</v>
+        <v>3751</v>
       </c>
       <c r="C1895" t="s">
-        <v>3755</v>
+        <v>3752</v>
       </c>
       <c r="D1895">
         <v>17618752</v>
@@ -45799,10 +45791,10 @@
         <v>1892</v>
       </c>
       <c r="B1896" t="s">
-        <v>3756</v>
+        <v>3753</v>
       </c>
       <c r="C1896" t="s">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="D1896">
         <v>373872219</v>
@@ -45816,10 +45808,10 @@
         <v>1895</v>
       </c>
       <c r="B1897" t="s">
-        <v>3758</v>
+        <v>3755</v>
       </c>
       <c r="C1897" t="s">
-        <v>3759</v>
+        <v>3756</v>
       </c>
       <c r="D1897">
         <v>199281559</v>
@@ -45833,10 +45825,10 @@
         <v>1896</v>
       </c>
       <c r="B1898" t="s">
-        <v>3760</v>
+        <v>3757</v>
       </c>
       <c r="C1898" t="s">
-        <v>3761</v>
+        <v>3758</v>
       </c>
       <c r="D1898">
         <v>7.3362722925702195E+17</v>
@@ -45850,10 +45842,10 @@
         <v>1897</v>
       </c>
       <c r="B1899" t="s">
-        <v>3762</v>
+        <v>3759</v>
       </c>
       <c r="C1899" t="s">
-        <v>4127</v>
+        <v>4123</v>
       </c>
       <c r="D1899">
         <v>3521387355</v>
@@ -45867,10 +45859,10 @@
         <v>1898</v>
       </c>
       <c r="B1900" t="s">
-        <v>3763</v>
+        <v>3760</v>
       </c>
       <c r="C1900" t="s">
-        <v>3764</v>
+        <v>3761</v>
       </c>
       <c r="D1900">
         <v>2292221262</v>
@@ -45884,10 +45876,10 @@
         <v>1899</v>
       </c>
       <c r="B1901" t="s">
-        <v>3765</v>
+        <v>3762</v>
       </c>
       <c r="C1901" t="s">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="D1901">
         <v>8.2019239502665702E+17</v>
@@ -45901,10 +45893,10 @@
         <v>1900</v>
       </c>
       <c r="B1902" t="s">
-        <v>3767</v>
+        <v>3764</v>
       </c>
       <c r="C1902" t="s">
-        <v>3768</v>
+        <v>3765</v>
       </c>
       <c r="D1902">
         <v>57621158</v>
@@ -45918,10 +45910,10 @@
         <v>1901</v>
       </c>
       <c r="B1903" t="s">
-        <v>3769</v>
+        <v>3766</v>
       </c>
       <c r="C1903" t="s">
-        <v>3770</v>
+        <v>3767</v>
       </c>
       <c r="D1903">
         <v>327262213</v>
@@ -45935,10 +45927,10 @@
         <v>1902</v>
       </c>
       <c r="B1904" t="s">
-        <v>3771</v>
+        <v>3768</v>
       </c>
       <c r="C1904" t="s">
-        <v>3772</v>
+        <v>3769</v>
       </c>
       <c r="D1904">
         <v>220933825</v>
@@ -45952,10 +45944,10 @@
         <v>1903</v>
       </c>
       <c r="B1905" t="s">
-        <v>3773</v>
+        <v>3770</v>
       </c>
       <c r="C1905" t="s">
-        <v>3774</v>
+        <v>3771</v>
       </c>
       <c r="D1905">
         <v>792169223</v>
@@ -45969,16 +45961,16 @@
         <v>1902</v>
       </c>
       <c r="B1906" t="s">
-        <v>3775</v>
+        <v>3772</v>
       </c>
       <c r="C1906" t="s">
-        <v>3776</v>
+        <v>3773</v>
       </c>
       <c r="D1906">
         <v>20506239</v>
       </c>
       <c r="E1906" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1907" spans="1:5" x14ac:dyDescent="0.35">
@@ -45986,16 +45978,16 @@
         <v>1905</v>
       </c>
       <c r="B1907" t="s">
-        <v>3777</v>
+        <v>3774</v>
       </c>
       <c r="C1907" t="s">
-        <v>3778</v>
+        <v>3775</v>
       </c>
       <c r="D1907">
         <v>823118756</v>
       </c>
       <c r="E1907" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1908" spans="1:5" x14ac:dyDescent="0.35">
@@ -46003,33 +45995,33 @@
         <v>1906</v>
       </c>
       <c r="B1908" t="s">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="C1908" t="s">
-        <v>4128</v>
+        <v>4124</v>
       </c>
       <c r="D1908">
         <v>9.3580917997712179E+17</v>
       </c>
       <c r="E1908" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="1909" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1909">
         <v>1907</v>
       </c>
       <c r="B1909" t="s">
-        <v>3780</v>
+        <v>3777</v>
       </c>
       <c r="C1909" s="1" t="s">
-        <v>4129</v>
+        <v>4125</v>
       </c>
       <c r="D1909">
         <v>8.9191923923268595E+17</v>
       </c>
       <c r="E1909" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1910" spans="1:5" x14ac:dyDescent="0.35">
@@ -46037,16 +46029,16 @@
         <v>1908</v>
       </c>
       <c r="B1910" t="s">
-        <v>3781</v>
+        <v>3778</v>
       </c>
       <c r="C1910" t="s">
-        <v>3782</v>
+        <v>3779</v>
       </c>
       <c r="D1910">
         <v>8.7308998755361587E+17</v>
       </c>
       <c r="E1910" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1911" spans="1:5" x14ac:dyDescent="0.35">
@@ -46054,16 +46046,16 @@
         <v>1909</v>
       </c>
       <c r="B1911" t="s">
-        <v>3783</v>
+        <v>3780</v>
       </c>
       <c r="C1911" t="s">
-        <v>4130</v>
+        <v>4126</v>
       </c>
       <c r="D1911">
         <v>362287855</v>
       </c>
       <c r="E1911" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1912" spans="1:5" x14ac:dyDescent="0.35">
@@ -46071,16 +46063,16 @@
         <v>1910</v>
       </c>
       <c r="B1912" t="s">
-        <v>3784</v>
+        <v>3781</v>
       </c>
       <c r="C1912" t="s">
-        <v>3785</v>
+        <v>3782</v>
       </c>
       <c r="D1912">
         <v>3330100911</v>
       </c>
       <c r="E1912" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1913" spans="1:5" x14ac:dyDescent="0.35">
@@ -46088,16 +46080,16 @@
         <v>1911</v>
       </c>
       <c r="B1913" t="s">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="C1913" t="s">
-        <v>3787</v>
+        <v>3784</v>
       </c>
       <c r="D1913">
         <v>7.5316200886212595E+17</v>
       </c>
       <c r="E1913" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1914" spans="1:5" x14ac:dyDescent="0.35">
@@ -46105,16 +46097,16 @@
         <v>1912</v>
       </c>
       <c r="B1914" t="s">
-        <v>3788</v>
+        <v>3785</v>
       </c>
       <c r="C1914" t="s">
-        <v>3789</v>
+        <v>3786</v>
       </c>
       <c r="D1914">
         <v>1.12377510588302E+18</v>
       </c>
       <c r="E1914" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1915" spans="1:5" x14ac:dyDescent="0.35">
@@ -46122,10 +46114,10 @@
         <v>1913</v>
       </c>
       <c r="B1915" t="s">
-        <v>3790</v>
+        <v>3787</v>
       </c>
       <c r="C1915" t="s">
-        <v>4131</v>
+        <v>4127</v>
       </c>
       <c r="D1915">
         <v>38171370</v>
@@ -46139,10 +46131,10 @@
         <v>1912</v>
       </c>
       <c r="B1916" t="s">
-        <v>3791</v>
+        <v>3788</v>
       </c>
       <c r="C1916" t="s">
-        <v>3792</v>
+        <v>3789</v>
       </c>
       <c r="D1916">
         <v>8.805202672101376E+17</v>
@@ -46156,10 +46148,10 @@
         <v>1915</v>
       </c>
       <c r="B1917" t="s">
-        <v>3793</v>
+        <v>3790</v>
       </c>
       <c r="C1917" t="s">
-        <v>3794</v>
+        <v>3791</v>
       </c>
       <c r="D1917">
         <v>1.3272639960938701E+18</v>
@@ -46173,10 +46165,10 @@
         <v>1916</v>
       </c>
       <c r="B1918" t="s">
-        <v>3795</v>
+        <v>3792</v>
       </c>
       <c r="C1918" t="s">
-        <v>3796</v>
+        <v>3793</v>
       </c>
       <c r="D1918">
         <v>57012719</v>
@@ -46190,10 +46182,10 @@
         <v>1917</v>
       </c>
       <c r="B1919" t="s">
-        <v>3797</v>
+        <v>3794</v>
       </c>
       <c r="C1919" t="s">
-        <v>3798</v>
+        <v>3795</v>
       </c>
       <c r="D1919">
         <v>1019630232</v>
@@ -46207,10 +46199,10 @@
         <v>1918</v>
       </c>
       <c r="B1920" t="s">
-        <v>3799</v>
+        <v>3796</v>
       </c>
       <c r="C1920" t="s">
-        <v>3800</v>
+        <v>3797</v>
       </c>
       <c r="D1920">
         <v>298203036</v>
@@ -46224,10 +46216,10 @@
         <v>1919</v>
       </c>
       <c r="B1921" t="s">
-        <v>3801</v>
+        <v>3798</v>
       </c>
       <c r="C1921" t="s">
-        <v>3802</v>
+        <v>3799</v>
       </c>
       <c r="D1921">
         <v>212551591</v>
@@ -46241,10 +46233,10 @@
         <v>1920</v>
       </c>
       <c r="B1922" t="s">
-        <v>3803</v>
+        <v>3800</v>
       </c>
       <c r="C1922" t="s">
-        <v>3804</v>
+        <v>3801</v>
       </c>
       <c r="D1922">
         <v>712920672</v>
@@ -46258,10 +46250,10 @@
         <v>1921</v>
       </c>
       <c r="B1923" t="s">
-        <v>3805</v>
+        <v>3802</v>
       </c>
       <c r="C1923" t="s">
-        <v>3806</v>
+        <v>3803</v>
       </c>
       <c r="D1923">
         <v>97221021</v>
@@ -46275,10 +46267,10 @@
         <v>1922</v>
       </c>
       <c r="B1924" t="s">
-        <v>3807</v>
+        <v>3804</v>
       </c>
       <c r="C1924" t="s">
-        <v>4132</v>
+        <v>4128</v>
       </c>
       <c r="D1924">
         <v>16095962</v>
@@ -46292,10 +46284,10 @@
         <v>1923</v>
       </c>
       <c r="B1925" t="s">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="C1925" t="s">
-        <v>3809</v>
+        <v>3806</v>
       </c>
       <c r="D1925">
         <v>102371677</v>
@@ -46309,10 +46301,10 @@
         <v>1922</v>
       </c>
       <c r="B1926" t="s">
-        <v>3810</v>
+        <v>3807</v>
       </c>
       <c r="C1926" t="s">
-        <v>3811</v>
+        <v>3808</v>
       </c>
       <c r="D1926">
         <v>539988898</v>
@@ -46326,16 +46318,16 @@
         <v>1925</v>
       </c>
       <c r="B1927" t="s">
-        <v>3812</v>
+        <v>3809</v>
       </c>
       <c r="C1927" t="s">
-        <v>3813</v>
+        <v>3810</v>
       </c>
       <c r="D1927">
         <v>7.8828580782832102E+17</v>
       </c>
       <c r="E1927" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1928" spans="1:5" x14ac:dyDescent="0.35">
@@ -46343,16 +46335,16 @@
         <v>1926</v>
       </c>
       <c r="B1928" t="s">
-        <v>3814</v>
+        <v>3811</v>
       </c>
       <c r="C1928" t="s">
-        <v>3815</v>
+        <v>3812</v>
       </c>
       <c r="D1928">
         <v>8.1877157926188237E+17</v>
       </c>
       <c r="E1928" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1929" spans="1:5" x14ac:dyDescent="0.35">
@@ -46360,16 +46352,16 @@
         <v>1927</v>
       </c>
       <c r="B1929" t="s">
-        <v>3816</v>
+        <v>3813</v>
       </c>
       <c r="C1929" t="s">
-        <v>3817</v>
+        <v>3814</v>
       </c>
       <c r="D1929">
         <v>3367582060</v>
       </c>
       <c r="E1929" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1930" spans="1:5" x14ac:dyDescent="0.35">
@@ -46377,16 +46369,16 @@
         <v>1928</v>
       </c>
       <c r="B1930" t="s">
-        <v>3818</v>
+        <v>3815</v>
       </c>
       <c r="C1930" t="s">
-        <v>3819</v>
+        <v>3816</v>
       </c>
       <c r="D1930">
         <v>8.8950251832106598E+17</v>
       </c>
       <c r="E1930" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1931" spans="1:5" x14ac:dyDescent="0.35">
@@ -46394,16 +46386,16 @@
         <v>1929</v>
       </c>
       <c r="B1931" t="s">
-        <v>3820</v>
+        <v>3817</v>
       </c>
       <c r="C1931" t="s">
-        <v>3821</v>
+        <v>3818</v>
       </c>
       <c r="D1931">
         <v>66365383</v>
       </c>
       <c r="E1931" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1932" spans="1:5" x14ac:dyDescent="0.35">
@@ -46411,16 +46403,16 @@
         <v>1930</v>
       </c>
       <c r="B1932" t="s">
-        <v>3822</v>
+        <v>3819</v>
       </c>
       <c r="C1932" t="s">
-        <v>3823</v>
+        <v>3820</v>
       </c>
       <c r="D1932">
         <v>8.9967857520227904E+17</v>
       </c>
       <c r="E1932" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1933" spans="1:5" x14ac:dyDescent="0.35">
@@ -46428,16 +46420,16 @@
         <v>1931</v>
       </c>
       <c r="B1933" t="s">
-        <v>3824</v>
+        <v>3821</v>
       </c>
       <c r="C1933" t="s">
-        <v>3825</v>
+        <v>3822</v>
       </c>
       <c r="D1933">
         <v>8.8221229950725798E+17</v>
       </c>
       <c r="E1933" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1934" spans="1:5" x14ac:dyDescent="0.35">
@@ -46445,16 +46437,16 @@
         <v>1932</v>
       </c>
       <c r="B1934" t="s">
-        <v>3826</v>
+        <v>3823</v>
       </c>
       <c r="C1934" t="s">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="D1934">
         <v>8.8181200535822195E+17</v>
       </c>
       <c r="E1934" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1935" spans="1:5" x14ac:dyDescent="0.35">
@@ -46462,16 +46454,16 @@
         <v>1933</v>
       </c>
       <c r="B1935" t="s">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="C1935" t="s">
-        <v>3829</v>
+        <v>3826</v>
       </c>
       <c r="D1935">
         <v>7.3981856612521306E+17</v>
       </c>
       <c r="E1935" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1936" spans="1:5" x14ac:dyDescent="0.35">
@@ -46479,16 +46471,16 @@
         <v>1932</v>
       </c>
       <c r="B1936" t="s">
-        <v>3830</v>
+        <v>3827</v>
       </c>
       <c r="C1936" t="s">
-        <v>3831</v>
+        <v>3828</v>
       </c>
       <c r="D1936">
         <v>193328135</v>
       </c>
       <c r="E1936" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1937" spans="1:5" x14ac:dyDescent="0.35">
@@ -46496,16 +46488,16 @@
         <v>1935</v>
       </c>
       <c r="B1937" t="s">
-        <v>3832</v>
+        <v>3829</v>
       </c>
       <c r="C1937" t="s">
-        <v>3833</v>
+        <v>3830</v>
       </c>
       <c r="D1937">
         <v>1872916282</v>
       </c>
       <c r="E1937" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1938" spans="1:5" x14ac:dyDescent="0.35">
@@ -46513,16 +46505,16 @@
         <v>1936</v>
       </c>
       <c r="B1938" t="s">
-        <v>3834</v>
+        <v>3831</v>
       </c>
       <c r="C1938" t="s">
-        <v>3835</v>
+        <v>3832</v>
       </c>
       <c r="D1938">
         <v>7.0787970370152896E+17</v>
       </c>
       <c r="E1938" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1939" spans="1:5" x14ac:dyDescent="0.35">
@@ -46530,16 +46522,16 @@
         <v>1937</v>
       </c>
       <c r="B1939" t="s">
-        <v>3836</v>
+        <v>3833</v>
       </c>
       <c r="C1939" t="s">
-        <v>3837</v>
+        <v>3834</v>
       </c>
       <c r="D1939">
         <v>227262571</v>
       </c>
       <c r="E1939" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1940" spans="1:5" x14ac:dyDescent="0.35">
@@ -46547,16 +46539,16 @@
         <v>1938</v>
       </c>
       <c r="B1940" t="s">
-        <v>3838</v>
+        <v>3835</v>
       </c>
       <c r="C1940" t="s">
-        <v>3839</v>
+        <v>3836</v>
       </c>
       <c r="D1940">
         <v>7.7278012250062298E+17</v>
       </c>
       <c r="E1940" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1941" spans="1:5" x14ac:dyDescent="0.35">
@@ -46564,10 +46556,10 @@
         <v>1939</v>
       </c>
       <c r="B1941" t="s">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="C1941" t="s">
-        <v>3841</v>
+        <v>3838</v>
       </c>
       <c r="D1941">
         <v>1.0159865110393569E+18</v>
@@ -46581,10 +46573,10 @@
         <v>1920</v>
       </c>
       <c r="B1942" t="s">
-        <v>3842</v>
+        <v>3839</v>
       </c>
       <c r="C1942" t="s">
-        <v>3843</v>
+        <v>3840</v>
       </c>
       <c r="D1942">
         <v>1253327322</v>
@@ -46598,10 +46590,10 @@
         <v>1921</v>
       </c>
       <c r="B1943" t="s">
-        <v>3844</v>
+        <v>3841</v>
       </c>
       <c r="C1943" t="s">
-        <v>3845</v>
+        <v>3842</v>
       </c>
       <c r="D1943">
         <v>21022711</v>
@@ -46615,10 +46607,10 @@
         <v>1922</v>
       </c>
       <c r="B1944" t="s">
-        <v>3846</v>
+        <v>3843</v>
       </c>
       <c r="C1944" t="s">
-        <v>3847</v>
+        <v>3844</v>
       </c>
       <c r="D1944">
         <v>1.07266778138633E+18</v>
@@ -46632,10 +46624,10 @@
         <v>1923</v>
       </c>
       <c r="B1945" t="s">
-        <v>3848</v>
+        <v>3845</v>
       </c>
       <c r="C1945" t="s">
-        <v>3849</v>
+        <v>3846</v>
       </c>
       <c r="D1945">
         <v>1.2080379756339241E+18</v>
@@ -46649,10 +46641,10 @@
         <v>1922</v>
       </c>
       <c r="B1946" t="s">
-        <v>3850</v>
+        <v>3847</v>
       </c>
       <c r="C1946" t="s">
-        <v>3851</v>
+        <v>3848</v>
       </c>
       <c r="D1946">
         <v>1.06212503530062E+18</v>
@@ -46666,10 +46658,10 @@
         <v>1925</v>
       </c>
       <c r="B1947" t="s">
-        <v>3852</v>
+        <v>3849</v>
       </c>
       <c r="C1947" t="s">
-        <v>3853</v>
+        <v>3850</v>
       </c>
       <c r="D1947">
         <v>1060821882</v>
@@ -46683,10 +46675,10 @@
         <v>1926</v>
       </c>
       <c r="B1948" t="s">
-        <v>3854</v>
+        <v>3851</v>
       </c>
       <c r="C1948" t="s">
-        <v>3855</v>
+        <v>3852</v>
       </c>
       <c r="D1948">
         <v>18800222</v>
@@ -46700,16 +46692,16 @@
         <v>1927</v>
       </c>
       <c r="B1949" t="s">
-        <v>3856</v>
+        <v>3853</v>
       </c>
       <c r="C1949" t="s">
-        <v>3857</v>
+        <v>3854</v>
       </c>
       <c r="D1949">
         <v>1.22225037965825E+18</v>
       </c>
       <c r="E1949" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1950" spans="1:5" x14ac:dyDescent="0.35">
@@ -46717,16 +46709,16 @@
         <v>1928</v>
       </c>
       <c r="B1950" t="s">
-        <v>3858</v>
+        <v>3855</v>
       </c>
       <c r="C1950" t="s">
-        <v>4133</v>
+        <v>4129</v>
       </c>
       <c r="D1950">
         <v>1.3616228222257201E+18</v>
       </c>
       <c r="E1950" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1951" spans="1:5" x14ac:dyDescent="0.35">
@@ -46734,16 +46726,16 @@
         <v>1929</v>
       </c>
       <c r="B1951" t="s">
-        <v>3859</v>
+        <v>3856</v>
       </c>
       <c r="C1951" t="s">
-        <v>4134</v>
+        <v>4130</v>
       </c>
       <c r="D1951">
         <v>1.1622862775371599E+18</v>
       </c>
       <c r="E1951" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1952" spans="1:5" x14ac:dyDescent="0.35">
@@ -46751,16 +46743,16 @@
         <v>1950</v>
       </c>
       <c r="B1952" t="s">
-        <v>3860</v>
+        <v>3857</v>
       </c>
       <c r="C1952" t="s">
-        <v>3861</v>
+        <v>3858</v>
       </c>
       <c r="D1952">
         <v>1.2128572195960599E+18</v>
       </c>
       <c r="E1952" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1953" spans="1:5" x14ac:dyDescent="0.35">
@@ -46768,16 +46760,16 @@
         <v>1951</v>
       </c>
       <c r="B1953" t="s">
-        <v>3862</v>
+        <v>3859</v>
       </c>
       <c r="C1953" t="s">
-        <v>4135</v>
+        <v>4131</v>
       </c>
       <c r="D1953">
         <v>2215395932</v>
       </c>
       <c r="E1953" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1954" spans="1:5" x14ac:dyDescent="0.35">
@@ -46785,10 +46777,10 @@
         <v>1952</v>
       </c>
       <c r="B1954" t="s">
-        <v>3863</v>
+        <v>3860</v>
       </c>
       <c r="C1954" t="s">
-        <v>3864</v>
+        <v>3861</v>
       </c>
       <c r="D1954">
         <v>1857200773</v>
@@ -46802,10 +46794,10 @@
         <v>1953</v>
       </c>
       <c r="B1955" t="s">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="C1955" t="s">
-        <v>3866</v>
+        <v>3863</v>
       </c>
       <c r="D1955">
         <v>9.6529532382938202E+17</v>
@@ -46819,10 +46811,10 @@
         <v>1952</v>
       </c>
       <c r="B1956" t="s">
-        <v>3867</v>
+        <v>3864</v>
       </c>
       <c r="C1956" t="s">
-        <v>3868</v>
+        <v>3865</v>
       </c>
       <c r="D1956">
         <v>857836192</v>
@@ -46836,10 +46828,10 @@
         <v>1955</v>
       </c>
       <c r="B1957" t="s">
-        <v>3869</v>
+        <v>3866</v>
       </c>
       <c r="C1957" t="s">
-        <v>3870</v>
+        <v>3867</v>
       </c>
       <c r="D1957">
         <v>27998217</v>
@@ -46853,10 +46845,10 @@
         <v>1956</v>
       </c>
       <c r="B1958" t="s">
-        <v>3871</v>
+        <v>3868</v>
       </c>
       <c r="C1958" t="s">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="D1958">
         <v>7.9255202262921498E+17</v>
@@ -46870,10 +46862,10 @@
         <v>1957</v>
       </c>
       <c r="B1959" t="s">
-        <v>3873</v>
+        <v>3870</v>
       </c>
       <c r="C1959" t="s">
-        <v>3874</v>
+        <v>3871</v>
       </c>
       <c r="D1959">
         <v>291800729</v>
@@ -46887,10 +46879,10 @@
         <v>1958</v>
       </c>
       <c r="B1960" t="s">
-        <v>3875</v>
+        <v>3872</v>
       </c>
       <c r="C1960" t="s">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="D1960">
         <v>1653823657</v>
@@ -46904,10 +46896,10 @@
         <v>1959</v>
       </c>
       <c r="B1961" t="s">
-        <v>3877</v>
+        <v>3874</v>
       </c>
       <c r="C1961" t="s">
-        <v>3878</v>
+        <v>3875</v>
       </c>
       <c r="D1961">
         <v>17131762</v>
@@ -46921,10 +46913,10 @@
         <v>1960</v>
       </c>
       <c r="B1962" t="s">
-        <v>3879</v>
+        <v>3876</v>
       </c>
       <c r="C1962" t="s">
-        <v>3880</v>
+        <v>3877</v>
       </c>
       <c r="D1962">
         <v>2785989037</v>
@@ -46938,10 +46930,10 @@
         <v>1961</v>
       </c>
       <c r="B1963" t="s">
-        <v>3881</v>
+        <v>3878</v>
       </c>
       <c r="C1963" t="s">
-        <v>3882</v>
+        <v>3879</v>
       </c>
       <c r="D1963">
         <v>7.2563238336593894E+17</v>
@@ -46955,10 +46947,10 @@
         <v>1962</v>
       </c>
       <c r="B1964" t="s">
-        <v>3883</v>
+        <v>3880</v>
       </c>
       <c r="C1964" t="s">
-        <v>3884</v>
+        <v>3881</v>
       </c>
       <c r="D1964">
         <v>9.8076828575938598E+17</v>
@@ -46972,10 +46964,10 @@
         <v>1963</v>
       </c>
       <c r="B1965" t="s">
-        <v>3885</v>
+        <v>3882</v>
       </c>
       <c r="C1965" t="s">
-        <v>3886</v>
+        <v>3883</v>
       </c>
       <c r="D1965">
         <v>8.5551707077926195E+17</v>
@@ -46989,16 +46981,16 @@
         <v>1962</v>
       </c>
       <c r="B1966" t="s">
-        <v>3887</v>
+        <v>3884</v>
       </c>
       <c r="C1966" t="s">
-        <v>3888</v>
+        <v>3885</v>
       </c>
       <c r="D1966">
         <v>1.08366923550698E+18</v>
       </c>
       <c r="E1966" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1967" spans="1:5" x14ac:dyDescent="0.35">
@@ -47006,16 +46998,16 @@
         <v>1965</v>
       </c>
       <c r="B1967" t="s">
-        <v>3889</v>
+        <v>3886</v>
       </c>
       <c r="C1967" t="s">
-        <v>3890</v>
+        <v>3887</v>
       </c>
       <c r="D1967">
         <v>80355211</v>
       </c>
       <c r="E1967" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1968" spans="1:5" x14ac:dyDescent="0.35">
@@ -47023,16 +47015,16 @@
         <v>1966</v>
       </c>
       <c r="B1968" t="s">
-        <v>3891</v>
+        <v>3888</v>
       </c>
       <c r="C1968" t="s">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="D1968">
         <v>352982198</v>
       </c>
       <c r="E1968" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1969" spans="1:5" x14ac:dyDescent="0.35">
@@ -47040,16 +47032,16 @@
         <v>1967</v>
       </c>
       <c r="B1969" t="s">
-        <v>3893</v>
+        <v>3890</v>
       </c>
       <c r="C1969" t="s">
-        <v>3894</v>
+        <v>3891</v>
       </c>
       <c r="D1969">
         <v>8.8802785122882906E+17</v>
       </c>
       <c r="E1969" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1970" spans="1:5" x14ac:dyDescent="0.35">
@@ -47057,16 +47049,16 @@
         <v>1968</v>
       </c>
       <c r="B1970" t="s">
-        <v>3895</v>
+        <v>3892</v>
       </c>
       <c r="C1970" t="s">
-        <v>3896</v>
+        <v>3893</v>
       </c>
       <c r="D1970">
         <v>36329531</v>
       </c>
       <c r="E1970" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1971" spans="1:5" x14ac:dyDescent="0.35">
@@ -47074,16 +47066,16 @@
         <v>1969</v>
       </c>
       <c r="B1971" t="s">
-        <v>3897</v>
+        <v>3894</v>
       </c>
       <c r="C1971" t="s">
-        <v>3898</v>
+        <v>3895</v>
       </c>
       <c r="D1971">
         <v>29226520</v>
       </c>
       <c r="E1971" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1972" spans="1:5" x14ac:dyDescent="0.35">
@@ -47091,10 +47083,10 @@
         <v>1970</v>
       </c>
       <c r="B1972" t="s">
-        <v>3899</v>
+        <v>3896</v>
       </c>
       <c r="C1972" t="s">
-        <v>3900</v>
+        <v>3897</v>
       </c>
       <c r="D1972">
         <v>7.2805982118687501E+17</v>
@@ -47108,10 +47100,10 @@
         <v>1971</v>
       </c>
       <c r="B1973" t="s">
-        <v>3901</v>
+        <v>3898</v>
       </c>
       <c r="C1973" t="s">
-        <v>3902</v>
+        <v>3899</v>
       </c>
       <c r="D1973">
         <v>65596829</v>
@@ -47125,10 +47117,10 @@
         <v>1972</v>
       </c>
       <c r="B1974" t="s">
-        <v>3903</v>
+        <v>3900</v>
       </c>
       <c r="C1974" t="s">
-        <v>3904</v>
+        <v>3901</v>
       </c>
       <c r="D1974">
         <v>620307102</v>
@@ -47142,10 +47134,10 @@
         <v>1973</v>
       </c>
       <c r="B1975" t="s">
-        <v>3905</v>
+        <v>3902</v>
       </c>
       <c r="C1975" t="s">
-        <v>3906</v>
+        <v>3903</v>
       </c>
       <c r="D1975">
         <v>17589578</v>
@@ -47159,10 +47151,10 @@
         <v>1972</v>
       </c>
       <c r="B1976" t="s">
-        <v>3907</v>
+        <v>3904</v>
       </c>
       <c r="C1976" t="s">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="D1976">
         <v>110628619</v>
@@ -47176,10 +47168,10 @@
         <v>1975</v>
       </c>
       <c r="B1977" t="s">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="C1977" t="s">
-        <v>3910</v>
+        <v>3907</v>
       </c>
       <c r="D1977">
         <v>8.7526635923350694E+17</v>
@@ -47193,10 +47185,10 @@
         <v>1976</v>
       </c>
       <c r="B1978" t="s">
-        <v>3911</v>
+        <v>3908</v>
       </c>
       <c r="C1978" t="s">
-        <v>4136</v>
+        <v>4132</v>
       </c>
       <c r="D1978">
         <v>2273227138</v>
@@ -47210,10 +47202,10 @@
         <v>1977</v>
       </c>
       <c r="B1979" t="s">
-        <v>3912</v>
+        <v>3909</v>
       </c>
       <c r="C1979" t="s">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="D1979">
         <v>27650877</v>
@@ -47222,21 +47214,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="1980" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1980" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A1980">
         <v>1978</v>
       </c>
       <c r="B1980" t="s">
-        <v>3914</v>
+        <v>3911</v>
       </c>
       <c r="C1980" s="1" t="s">
-        <v>4137</v>
+        <v>4133</v>
       </c>
       <c r="D1980">
         <v>20368223</v>
       </c>
       <c r="E1980" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1981" spans="1:5" x14ac:dyDescent="0.35">
@@ -47244,33 +47236,33 @@
         <v>1979</v>
       </c>
       <c r="B1981" t="s">
-        <v>3915</v>
+        <v>3912</v>
       </c>
       <c r="C1981" t="s">
-        <v>4138</v>
+        <v>4134</v>
       </c>
       <c r="D1981">
         <v>1.0695730621559601E+18</v>
       </c>
       <c r="E1981" t="s">
-        <v>3608</v>
-      </c>
-    </row>
-    <row r="1982" spans="1:5" x14ac:dyDescent="0.35">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1982">
         <v>1980</v>
       </c>
       <c r="B1982" t="s">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="C1982" s="1" t="s">
-        <v>4139</v>
+        <v>4135</v>
       </c>
       <c r="D1982">
         <v>1.1358970326269199E+18</v>
       </c>
       <c r="E1982" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1983" spans="1:5" x14ac:dyDescent="0.35">
@@ -47278,16 +47270,16 @@
         <v>1981</v>
       </c>
       <c r="B1983" t="s">
-        <v>3917</v>
+        <v>3914</v>
       </c>
       <c r="C1983" t="s">
-        <v>3918</v>
+        <v>3915</v>
       </c>
       <c r="D1983">
         <v>1.08880321890128E+18</v>
       </c>
       <c r="E1983" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1984" spans="1:5" x14ac:dyDescent="0.35">
@@ -47295,16 +47287,16 @@
         <v>1982</v>
       </c>
       <c r="B1984" t="s">
-        <v>3919</v>
+        <v>3916</v>
       </c>
       <c r="C1984" t="s">
-        <v>3920</v>
+        <v>3917</v>
       </c>
       <c r="D1984">
         <v>1.09627301797736E+18</v>
       </c>
       <c r="E1984" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1985" spans="1:5" x14ac:dyDescent="0.35">
@@ -47312,16 +47304,16 @@
         <v>1983</v>
       </c>
       <c r="B1985" t="s">
-        <v>3921</v>
+        <v>3918</v>
       </c>
       <c r="C1985" t="s">
-        <v>3922</v>
+        <v>3919</v>
       </c>
       <c r="D1985">
         <v>7.8102258936737203E+17</v>
       </c>
       <c r="E1985" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1986" spans="1:5" x14ac:dyDescent="0.35">
@@ -47329,10 +47321,10 @@
         <v>1982</v>
       </c>
       <c r="B1986" t="s">
-        <v>3923</v>
+        <v>3920</v>
       </c>
       <c r="C1986" t="s">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="D1986">
         <v>19181881</v>
@@ -47346,10 +47338,10 @@
         <v>1985</v>
       </c>
       <c r="B1987" t="s">
-        <v>3925</v>
+        <v>3922</v>
       </c>
       <c r="C1987" t="s">
-        <v>3926</v>
+        <v>3923</v>
       </c>
       <c r="D1987">
         <v>1.2102212623722299E+18</v>
@@ -47363,10 +47355,10 @@
         <v>1986</v>
       </c>
       <c r="B1988" t="s">
-        <v>3927</v>
+        <v>3924</v>
       </c>
       <c r="C1988" t="s">
-        <v>3928</v>
+        <v>3925</v>
       </c>
       <c r="D1988">
         <v>226287630</v>
@@ -47380,10 +47372,10 @@
         <v>1987</v>
       </c>
       <c r="B1989" t="s">
-        <v>3929</v>
+        <v>3926</v>
       </c>
       <c r="C1989" t="s">
-        <v>3930</v>
+        <v>3927</v>
       </c>
       <c r="D1989">
         <v>2615159767</v>
@@ -47397,10 +47389,10 @@
         <v>1988</v>
       </c>
       <c r="B1990" t="s">
-        <v>3931</v>
+        <v>3928</v>
       </c>
       <c r="C1990" t="s">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="D1990">
         <v>105328313</v>
@@ -47414,10 +47406,10 @@
         <v>1989</v>
       </c>
       <c r="B1991" t="s">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="C1991" t="s">
-        <v>3934</v>
+        <v>3931</v>
       </c>
       <c r="D1991">
         <v>7.6922626078610598E+17</v>
@@ -47431,10 +47423,10 @@
         <v>1990</v>
       </c>
       <c r="B1992" t="s">
-        <v>3935</v>
+        <v>3932</v>
       </c>
       <c r="C1992" t="s">
-        <v>3936</v>
+        <v>3933</v>
       </c>
       <c r="D1992">
         <v>26629973</v>
@@ -47448,10 +47440,10 @@
         <v>1991</v>
       </c>
       <c r="B1993" t="s">
-        <v>3937</v>
+        <v>3934</v>
       </c>
       <c r="C1993" t="s">
-        <v>3938</v>
+        <v>3935</v>
       </c>
       <c r="D1993">
         <v>7.2593903136263296E+17</v>
@@ -47465,10 +47457,10 @@
         <v>1992</v>
       </c>
       <c r="B1994" t="s">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="C1994" t="s">
-        <v>3940</v>
+        <v>3937</v>
       </c>
       <c r="D1994">
         <v>8.2030389712626893E+17</v>
@@ -47482,10 +47474,10 @@
         <v>1993</v>
       </c>
       <c r="B1995" t="s">
-        <v>3941</v>
+        <v>3938</v>
       </c>
       <c r="C1995" t="s">
-        <v>3942</v>
+        <v>3939</v>
       </c>
       <c r="D1995">
         <v>388237790</v>
@@ -47499,10 +47491,10 @@
         <v>1992</v>
       </c>
       <c r="B1996" t="s">
-        <v>3943</v>
+        <v>3940</v>
       </c>
       <c r="C1996" t="s">
-        <v>3944</v>
+        <v>3941</v>
       </c>
       <c r="D1996">
         <v>3225663692</v>
@@ -47516,10 +47508,10 @@
         <v>1995</v>
       </c>
       <c r="B1997" t="s">
-        <v>3945</v>
+        <v>3942</v>
       </c>
       <c r="C1997" t="s">
-        <v>3946</v>
+        <v>3943</v>
       </c>
       <c r="D1997">
         <v>1.12632987121882E+18</v>
@@ -47533,16 +47525,16 @@
         <v>1996</v>
       </c>
       <c r="B1998" t="s">
-        <v>3947</v>
+        <v>3944</v>
       </c>
       <c r="C1998" t="s">
-        <v>3948</v>
+        <v>3945</v>
       </c>
       <c r="D1998">
         <v>2278329112</v>
       </c>
       <c r="E1998" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="1999" spans="1:5" x14ac:dyDescent="0.35">
@@ -47550,16 +47542,16 @@
         <v>1997</v>
       </c>
       <c r="B1999" t="s">
-        <v>3949</v>
+        <v>3946</v>
       </c>
       <c r="C1999" t="s">
-        <v>4140</v>
+        <v>4136</v>
       </c>
       <c r="D1999">
         <v>588222800</v>
       </c>
       <c r="E1999" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2000" spans="1:5" x14ac:dyDescent="0.35">
@@ -47567,16 +47559,16 @@
         <v>1998</v>
       </c>
       <c r="B2000" t="s">
-        <v>3950</v>
+        <v>3947</v>
       </c>
       <c r="C2000" t="s">
-        <v>3951</v>
+        <v>3948</v>
       </c>
       <c r="D2000">
         <v>2969727718</v>
       </c>
       <c r="E2000" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2001" spans="1:5" x14ac:dyDescent="0.35">
@@ -47584,16 +47576,16 @@
         <v>1999</v>
       </c>
       <c r="B2001" t="s">
-        <v>3952</v>
+        <v>3949</v>
       </c>
       <c r="C2001" t="s">
-        <v>3953</v>
+        <v>3950</v>
       </c>
       <c r="D2001">
         <v>259092531</v>
       </c>
       <c r="E2001" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2002" spans="1:5" x14ac:dyDescent="0.35">
@@ -47601,16 +47593,16 @@
         <v>2000</v>
       </c>
       <c r="B2002" t="s">
-        <v>3954</v>
+        <v>3951</v>
       </c>
       <c r="C2002" t="s">
-        <v>3955</v>
+        <v>3952</v>
       </c>
       <c r="D2002">
         <v>1.1217009611253146E+18</v>
       </c>
       <c r="E2002" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2003" spans="1:5" x14ac:dyDescent="0.35">
@@ -47618,16 +47610,16 @@
         <v>2001</v>
       </c>
       <c r="B2003" t="s">
-        <v>3956</v>
+        <v>3953</v>
       </c>
       <c r="C2003" t="s">
-        <v>3957</v>
+        <v>3954</v>
       </c>
       <c r="D2003">
         <v>1.11882776352723E+18</v>
       </c>
       <c r="E2003" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2004" spans="1:5" x14ac:dyDescent="0.35">
@@ -47635,16 +47627,16 @@
         <v>2002</v>
       </c>
       <c r="B2004" t="s">
-        <v>3958</v>
+        <v>3955</v>
       </c>
       <c r="C2004" t="s">
-        <v>3959</v>
+        <v>3956</v>
       </c>
       <c r="D2004">
         <v>1.2652968020858199E+18</v>
       </c>
       <c r="E2004" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2005" spans="1:5" x14ac:dyDescent="0.35">
@@ -47652,16 +47644,16 @@
         <v>2003</v>
       </c>
       <c r="B2005" t="s">
-        <v>3960</v>
+        <v>3957</v>
       </c>
       <c r="C2005" t="s">
-        <v>3961</v>
+        <v>3958</v>
       </c>
       <c r="D2005">
         <v>1.26928989209203E+18</v>
       </c>
       <c r="E2005" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2006" spans="1:5" x14ac:dyDescent="0.35">
@@ -47669,16 +47661,16 @@
         <v>2002</v>
       </c>
       <c r="B2006" t="s">
-        <v>3962</v>
+        <v>3959</v>
       </c>
       <c r="C2006" t="s">
-        <v>4141</v>
+        <v>4137</v>
       </c>
       <c r="D2006">
         <v>8.2288893810382502E+17</v>
       </c>
       <c r="E2006" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2007" spans="1:5" x14ac:dyDescent="0.35">
@@ -47686,16 +47678,16 @@
         <v>2005</v>
       </c>
       <c r="B2007" t="s">
-        <v>3963</v>
+        <v>3960</v>
       </c>
       <c r="C2007" t="s">
-        <v>3964</v>
+        <v>3961</v>
       </c>
       <c r="D2007">
         <v>1523215318</v>
       </c>
       <c r="E2007" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2008" spans="1:5" x14ac:dyDescent="0.35">
@@ -47703,16 +47695,16 @@
         <v>2006</v>
       </c>
       <c r="B2008" t="s">
-        <v>3965</v>
+        <v>3962</v>
       </c>
       <c r="C2008" t="s">
-        <v>4142</v>
+        <v>4138</v>
       </c>
       <c r="D2008">
         <v>323890282</v>
       </c>
       <c r="E2008" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2009" spans="1:5" x14ac:dyDescent="0.35">
@@ -47720,16 +47712,16 @@
         <v>2007</v>
       </c>
       <c r="B2009" t="s">
-        <v>3966</v>
+        <v>3963</v>
       </c>
       <c r="C2009" t="s">
-        <v>3967</v>
+        <v>3964</v>
       </c>
       <c r="D2009">
         <v>322697372</v>
       </c>
       <c r="E2009" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2010" spans="1:5" x14ac:dyDescent="0.35">
@@ -47737,16 +47729,16 @@
         <v>2008</v>
       </c>
       <c r="B2010" t="s">
-        <v>3968</v>
+        <v>3965</v>
       </c>
       <c r="C2010" t="s">
-        <v>3969</v>
+        <v>3966</v>
       </c>
       <c r="D2010">
         <v>162620982</v>
       </c>
       <c r="E2010" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2011" spans="1:5" x14ac:dyDescent="0.35">
@@ -47754,16 +47746,16 @@
         <v>2009</v>
       </c>
       <c r="B2011" t="s">
-        <v>3970</v>
+        <v>3967</v>
       </c>
       <c r="C2011" t="s">
-        <v>4143</v>
+        <v>4139</v>
       </c>
       <c r="D2011">
         <v>2313799808</v>
       </c>
       <c r="E2011" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2012" spans="1:5" x14ac:dyDescent="0.35">
@@ -47771,16 +47763,16 @@
         <v>2010</v>
       </c>
       <c r="B2012" t="s">
-        <v>3971</v>
+        <v>3968</v>
       </c>
       <c r="C2012" t="s">
-        <v>3972</v>
+        <v>3969</v>
       </c>
       <c r="D2012">
         <v>267321087</v>
       </c>
       <c r="E2012" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2013" spans="1:5" x14ac:dyDescent="0.35">
@@ -47788,16 +47780,16 @@
         <v>2011</v>
       </c>
       <c r="B2013" t="s">
-        <v>3973</v>
+        <v>3970</v>
       </c>
       <c r="C2013" t="s">
-        <v>3974</v>
+        <v>3971</v>
       </c>
       <c r="D2013">
         <v>273268322</v>
       </c>
       <c r="E2013" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2014" spans="1:5" x14ac:dyDescent="0.35">
@@ -47805,16 +47797,16 @@
         <v>2012</v>
       </c>
       <c r="B2014" t="s">
-        <v>3975</v>
+        <v>3972</v>
       </c>
       <c r="C2014" t="s">
-        <v>3976</v>
+        <v>3973</v>
       </c>
       <c r="D2014">
         <v>232323291</v>
       </c>
       <c r="E2014" t="s">
-        <v>3608</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="2015" spans="1:5" x14ac:dyDescent="0.35">
@@ -47822,10 +47814,10 @@
         <v>2013</v>
       </c>
       <c r="B2015" t="s">
-        <v>3977</v>
+        <v>3974</v>
       </c>
       <c r="C2015" t="s">
-        <v>3978</v>
+        <v>3975</v>
       </c>
       <c r="D2015">
         <v>7.2769613229565094E+17</v>
@@ -47839,10 +47831,10 @@
         <v>2012</v>
       </c>
       <c r="B2016" t="s">
-        <v>3979</v>
+        <v>3976</v>
       </c>
       <c r="C2016" t="s">
-        <v>3980</v>
+        <v>3977</v>
       </c>
       <c r="D2016">
         <v>22725119</v>
@@ -47856,10 +47848,10 @@
         <v>2015</v>
       </c>
       <c r="B2017" t="s">
-        <v>3981</v>
+        <v>3978</v>
       </c>
       <c r="C2017" t="s">
-        <v>3982</v>
+        <v>3979</v>
       </c>
       <c r="D2017">
         <v>29225666</v>
@@ -47873,10 +47865,10 @@
         <v>2016</v>
       </c>
       <c r="B2018" t="s">
-        <v>3983</v>
+        <v>3980</v>
       </c>
       <c r="C2018" t="s">
-        <v>3984</v>
+        <v>3981</v>
       </c>
       <c r="D2018">
         <v>1.03882991881385E+18</v>
@@ -47890,10 +47882,10 @@
         <v>2017</v>
       </c>
       <c r="B2019" t="s">
-        <v>3985</v>
+        <v>3982</v>
       </c>
       <c r="C2019" t="s">
-        <v>3986</v>
+        <v>3983</v>
       </c>
       <c r="D2019">
         <v>1222722817</v>
@@ -47907,10 +47899,10 @@
         <v>2018</v>
       </c>
       <c r="B2020" t="s">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="C2020" t="s">
-        <v>3988</v>
+        <v>3985</v>
       </c>
       <c r="D2020">
         <v>2173232857</v>
@@ -47924,10 +47916,10 @@
         <v>2019</v>
       </c>
       <c r="B2021" t="s">
-        <v>3989</v>
+        <v>3986</v>
       </c>
       <c r="C2021" t="s">
-        <v>3990</v>
+        <v>3987</v>
       </c>
       <c r="D2021">
         <v>2863226695</v>
@@ -47941,10 +47933,10 @@
         <v>2020</v>
       </c>
       <c r="B2022" t="s">
-        <v>3991</v>
+        <v>3988</v>
       </c>
       <c r="C2022" t="s">
-        <v>3992</v>
+        <v>3989</v>
       </c>
       <c r="D2022">
         <v>131802180</v>
@@ -47958,10 +47950,10 @@
         <v>2021</v>
       </c>
       <c r="B2023" t="s">
-        <v>3993</v>
+        <v>3990</v>
       </c>
       <c r="C2023" t="s">
-        <v>3994</v>
+        <v>3991</v>
       </c>
       <c r="D2023">
         <v>2839261502</v>
@@ -47975,10 +47967,10 @@
         <v>2022</v>
       </c>
       <c r="B2024" t="s">
-        <v>3995</v>
+        <v>3992</v>
       </c>
       <c r="C2024" t="s">
-        <v>3996</v>
+        <v>3993</v>
       </c>
       <c r="D2024">
         <v>1.1837032313331098E+18</v>
@@ -47992,10 +47984,10 @@
         <v>2023</v>
       </c>
       <c r="B2025" t="s">
-        <v>3997</v>
+        <v>3994</v>
       </c>
       <c r="C2025" t="s">
-        <v>3998</v>
+        <v>3995</v>
       </c>
       <c r="D2025">
         <v>7.0913865576221901E+17</v>
@@ -48009,10 +48001,10 @@
         <v>2022</v>
       </c>
       <c r="B2026" t="s">
-        <v>3999</v>
+        <v>3996</v>
       </c>
       <c r="C2026" t="s">
-        <v>4000</v>
+        <v>3997</v>
       </c>
       <c r="D2026">
         <v>7.2607681883970765E+17</v>
@@ -48021,15 +48013,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2027" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2027" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2027">
         <v>2025</v>
       </c>
       <c r="B2027" t="s">
-        <v>4001</v>
+        <v>3998</v>
       </c>
       <c r="C2027" s="1" t="s">
-        <v>4144</v>
+        <v>4140</v>
       </c>
       <c r="D2027">
         <v>185615819</v>
@@ -48043,10 +48035,10 @@
         <v>2026</v>
       </c>
       <c r="B2028" t="s">
-        <v>4002</v>
+        <v>3999</v>
       </c>
       <c r="C2028" t="s">
-        <v>4003</v>
+        <v>4000</v>
       </c>
       <c r="D2028">
         <v>67602662</v>
@@ -48060,10 +48052,10 @@
         <v>2027</v>
       </c>
       <c r="B2029" t="s">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="C2029" t="s">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="D2029">
         <v>9.2062090002982502E+17</v>
@@ -48077,10 +48069,10 @@
         <v>2028</v>
       </c>
       <c r="B2030" t="s">
-        <v>4006</v>
+        <v>4003</v>
       </c>
       <c r="C2030" t="s">
-        <v>4007</v>
+        <v>4004</v>
       </c>
       <c r="D2030">
         <v>201280112</v>
@@ -48094,10 +48086,10 @@
         <v>2029</v>
       </c>
       <c r="B2031" t="s">
-        <v>4008</v>
+        <v>4005</v>
       </c>
       <c r="C2031" t="s">
-        <v>4009</v>
+        <v>4006</v>
       </c>
       <c r="D2031">
         <v>20360928</v>
@@ -48111,10 +48103,10 @@
         <v>2030</v>
       </c>
       <c r="B2032" t="s">
-        <v>4010</v>
+        <v>4007</v>
       </c>
       <c r="C2032" t="s">
-        <v>4011</v>
+        <v>4008</v>
       </c>
       <c r="D2032">
         <v>7.3317905813208998E+17</v>
@@ -48128,10 +48120,10 @@
         <v>2031</v>
       </c>
       <c r="B2033" t="s">
-        <v>4012</v>
+        <v>4009</v>
       </c>
       <c r="C2033" t="s">
-        <v>4013</v>
+        <v>4010</v>
       </c>
       <c r="D2033">
         <v>562096928</v>
@@ -48145,10 +48137,10 @@
         <v>2032</v>
       </c>
       <c r="B2034" t="s">
-        <v>4014</v>
+        <v>4011</v>
       </c>
       <c r="C2034" t="s">
-        <v>4015</v>
+        <v>4012</v>
       </c>
       <c r="D2034">
         <v>2915303195</v>
@@ -48162,10 +48154,10 @@
         <v>2033</v>
       </c>
       <c r="B2035" t="s">
-        <v>4016</v>
+        <v>4013</v>
       </c>
       <c r="C2035" t="s">
-        <v>4017</v>
+        <v>4014</v>
       </c>
       <c r="D2035">
         <v>1.38268252239922E+18</v>
@@ -48179,10 +48171,10 @@
         <v>2032</v>
       </c>
       <c r="B2036" t="s">
-        <v>4018</v>
+        <v>4015</v>
       </c>
       <c r="C2036" t="s">
-        <v>4019</v>
+        <v>4016</v>
       </c>
       <c r="D2036">
         <v>7.2567261829793702E+17</v>
@@ -48196,10 +48188,10 @@
         <v>2035</v>
       </c>
       <c r="B2037" t="s">
-        <v>4020</v>
+        <v>4017</v>
       </c>
       <c r="C2037" t="s">
-        <v>4021</v>
+        <v>4018</v>
       </c>
       <c r="D2037">
         <v>1.1751375765015962E+18</v>
@@ -48213,10 +48205,10 @@
         <v>2036</v>
       </c>
       <c r="B2038" t="s">
-        <v>4022</v>
+        <v>4019</v>
       </c>
       <c r="C2038" t="s">
-        <v>4023</v>
+        <v>4020</v>
       </c>
       <c r="D2038">
         <v>19759833</v>
@@ -48230,10 +48222,10 @@
         <v>2037</v>
       </c>
       <c r="B2039" t="s">
-        <v>4024</v>
+        <v>4021</v>
       </c>
       <c r="C2039" t="s">
-        <v>4025</v>
+        <v>4022</v>
       </c>
       <c r="D2039">
         <v>1.0627523729925E+18</v>
@@ -48247,10 +48239,10 @@
         <v>2038</v>
       </c>
       <c r="B2040" t="s">
-        <v>4026</v>
+        <v>4023</v>
       </c>
       <c r="C2040" t="s">
-        <v>4027</v>
+        <v>4024</v>
       </c>
       <c r="D2040">
         <v>205779883</v>
@@ -48264,10 +48256,10 @@
         <v>2039</v>
       </c>
       <c r="B2041" t="s">
-        <v>4028</v>
+        <v>4025</v>
       </c>
       <c r="C2041" t="s">
-        <v>4029</v>
+        <v>4026</v>
       </c>
       <c r="D2041">
         <v>9.1322870398366106E+17</v>
@@ -48281,10 +48273,10 @@
         <v>2020</v>
       </c>
       <c r="B2042" t="s">
-        <v>4030</v>
+        <v>4027</v>
       </c>
       <c r="C2042" t="s">
-        <v>4031</v>
+        <v>4028</v>
       </c>
       <c r="D2042">
         <v>2539628876</v>
@@ -48298,10 +48290,10 @@
         <v>2021</v>
       </c>
       <c r="B2043" t="s">
-        <v>4032</v>
+        <v>4029</v>
       </c>
       <c r="C2043" t="s">
-        <v>4033</v>
+        <v>4030</v>
       </c>
       <c r="D2043">
         <v>19122222</v>
@@ -48315,10 +48307,10 @@
         <v>2022</v>
       </c>
       <c r="B2044" t="s">
-        <v>4145</v>
+        <v>4141</v>
       </c>
       <c r="C2044" t="s">
-        <v>4034</v>
+        <v>4031</v>
       </c>
       <c r="D2044">
         <v>1.09869821326333E+18</v>
@@ -48332,10 +48324,10 @@
         <v>2023</v>
       </c>
       <c r="B2045" t="s">
-        <v>4035</v>
+        <v>4032</v>
       </c>
       <c r="C2045" t="s">
-        <v>4036</v>
+        <v>4033</v>
       </c>
       <c r="D2045">
         <v>7.26062902696832E+17</v>
@@ -48349,10 +48341,10 @@
         <v>2022</v>
       </c>
       <c r="B2046" t="s">
-        <v>4037</v>
+        <v>4034</v>
       </c>
       <c r="C2046" t="s">
-        <v>4038</v>
+        <v>4035</v>
       </c>
       <c r="D2046">
         <v>180796172</v>
@@ -48366,10 +48358,10 @@
         <v>2025</v>
       </c>
       <c r="B2047" t="s">
-        <v>4039</v>
+        <v>4036</v>
       </c>
       <c r="C2047" t="s">
-        <v>4040</v>
+        <v>4037</v>
       </c>
       <c r="D2047">
         <v>29023192</v>
@@ -48383,10 +48375,10 @@
         <v>2026</v>
       </c>
       <c r="B2048" t="s">
-        <v>4041</v>
+        <v>4038</v>
       </c>
       <c r="C2048" t="s">
-        <v>4042</v>
+        <v>4039</v>
       </c>
       <c r="D2048">
         <v>2823812902</v>
@@ -48400,10 +48392,10 @@
         <v>2027</v>
       </c>
       <c r="B2049" t="s">
-        <v>4043</v>
+        <v>4040</v>
       </c>
       <c r="C2049" t="s">
-        <v>4044</v>
+        <v>4041</v>
       </c>
       <c r="D2049">
         <v>392036282</v>
@@ -48417,10 +48409,10 @@
         <v>2028</v>
       </c>
       <c r="B2050" t="s">
-        <v>4045</v>
+        <v>4042</v>
       </c>
       <c r="C2050" t="s">
-        <v>4046</v>
+        <v>4043</v>
       </c>
       <c r="D2050">
         <v>1.0525133610305987E+18</v>

--- a/Classification/LabeledandUnlabeled_Profiles.xlsx
+++ b/Classification/LabeledandUnlabeled_Profiles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mariu\Documents\GitHub\CERProject23MC\Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7673BB7-C593-48E3-BDA9-31606CE61D8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9D071C-B910-4175-9417-AD4CF22C3016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="profiledescriptions_withpartyan" sheetId="2" r:id="rId1"/>
@@ -12969,13 +12969,13 @@
 retweet bedeutet nicht automatisch Zustimmung</t>
   </si>
   <si>
+    <t>Tiere, Klima, Gerechtigkeit. #vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
+  </si>
+  <si>
     <t>Wir streiten für mutige, faire, nachhaltige und fortschrittliche Politik. Deutschlands sozialliberale Partei. 🗽⚖️🌿🚀 Impressum: https://t.co/q7zMc8FMmj</t>
   </si>
   <si>
-    <t>Hier twittert die politische Partei  Wir BürgerLiberal.Konservativ.  Impressum:https://t.co/GIji6KOj2x https://t.co/MtcOh7Up2b</t>
-  </si>
-  <si>
-    <t>Tiere, Klima, Gerechtigkeit.#vegan #tierrechte #agrarwende #mobilitätswende #lsbttiq</t>
+    <t>Hier twittert die politische Partei Wir Bürger Liberal.Konservativ. Impressum:https://t.co/GIji6KOj2xhttps://t.co/MtcOh7Up2b</t>
   </si>
 </sst>
 </file>
@@ -13345,7 +13345,7 @@
   <dimension ref="A1:F2050"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1614" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C1632" sqref="C1632"/>
+      <selection activeCell="C1633" sqref="C1633"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -41289,7 +41289,7 @@
         <v>3226</v>
       </c>
       <c r="C1631" t="s">
-        <v>4152</v>
+        <v>4150</v>
       </c>
       <c r="D1631">
         <v>7.2523895932999296E+17</v>
@@ -41323,7 +41323,7 @@
         <v>3231</v>
       </c>
       <c r="C1633" s="1" t="s">
-        <v>4151</v>
+        <v>4152</v>
       </c>
       <c r="D1633">
         <v>3383137925</v>
@@ -41509,8 +41509,8 @@
       <c r="B1644" t="s">
         <v>3258</v>
       </c>
-      <c r="C1644" s="1" t="s">
-        <v>4150</v>
+      <c r="C1644" t="s">
+        <v>4151</v>
       </c>
       <c r="D1644">
         <v>86928808</v>
